--- a/data-raw/model-runs/AEO2023 IRA 5cenario outputs by OnL 05-12-23.xlsx
+++ b/data-raw/model-runs/AEO2023 IRA 5cenario outputs by OnL 05-12-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\LEEP\data-raw\model-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D5F1D9-35D4-4FAC-BC1F-A20FB3D06F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F923B2-0203-47F6-B323-C4F162EC0A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="529" xr2:uid="{AD14A334-AA51-4896-9CCE-196B3E25482D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$AJ$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$AJ$513</definedName>
     <definedName name="FTAB_ID">data!$A$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="301">
   <si>
     <t>Carbon Sequestration|CCS</t>
   </si>
@@ -937,6 +937,12 @@
   <si>
     <t>unit</t>
   </si>
+  <si>
+    <t>Emissions|CO2|Energy|Demand|Industry and Fuel Production</t>
+  </si>
+  <si>
+    <t>Emissions|CO2|Energy|Demand|Industry and Fuel Production|Indirect</t>
+  </si>
 </sst>
 </file>
 
@@ -1342,11 +1348,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5B75BC-FA86-469E-9E52-560666E9AC5E}">
-  <dimension ref="A1:AJ513"/>
+  <dimension ref="A1:AJ517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7520,109 +7526,109 @@
         <v>292</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F57" s="6">
-        <v>0</v>
+        <v>4576.5639650000003</v>
       </c>
       <c r="G57" s="6">
-        <v>0</v>
+        <v>4872.3979490000002</v>
       </c>
       <c r="H57" s="6">
-        <v>0</v>
+        <v>4853.4584960000002</v>
       </c>
       <c r="I57" s="6">
-        <v>0</v>
+        <v>4714.9907229999999</v>
       </c>
       <c r="J57" s="6">
-        <v>0</v>
+        <v>4663.6040039999998</v>
       </c>
       <c r="K57" s="6">
-        <v>0</v>
+        <v>4552.8442379999997</v>
       </c>
       <c r="L57" s="6">
-        <v>0</v>
+        <v>4421.1865230000003</v>
       </c>
       <c r="M57" s="6">
-        <v>0</v>
+        <v>4279.1831050000001</v>
       </c>
       <c r="N57" s="6">
-        <v>0</v>
+        <v>4170.6674800000001</v>
       </c>
       <c r="O57" s="6">
-        <v>0</v>
+        <v>4072.9934079999998</v>
       </c>
       <c r="P57" s="6">
-        <v>0</v>
+        <v>3996.1271969999998</v>
       </c>
       <c r="Q57" s="6">
-        <v>0</v>
+        <v>3960.9223630000001</v>
       </c>
       <c r="R57" s="6">
-        <v>0</v>
+        <v>3947.2253420000002</v>
       </c>
       <c r="S57" s="6">
-        <v>0</v>
+        <v>3933.398682</v>
       </c>
       <c r="T57" s="6">
-        <v>0</v>
+        <v>3909.8391109999998</v>
       </c>
       <c r="U57" s="6">
-        <v>0</v>
+        <v>3893.2392580000001</v>
       </c>
       <c r="V57" s="6">
-        <v>0</v>
+        <v>3881.1965329999998</v>
       </c>
       <c r="W57" s="6">
-        <v>0</v>
+        <v>3878.0729980000001</v>
       </c>
       <c r="X57" s="6">
-        <v>0</v>
+        <v>3866.7434079999998</v>
       </c>
       <c r="Y57" s="6">
-        <v>0</v>
+        <v>3866.2619629999999</v>
       </c>
       <c r="Z57" s="6">
-        <v>0</v>
+        <v>3866.6445309999999</v>
       </c>
       <c r="AA57" s="6">
-        <v>0</v>
+        <v>3875.4497070000002</v>
       </c>
       <c r="AB57" s="6">
-        <v>0</v>
+        <v>3885.6960450000001</v>
       </c>
       <c r="AC57" s="6">
-        <v>0</v>
+        <v>3889.9865719999998</v>
       </c>
       <c r="AD57" s="6">
-        <v>0</v>
+        <v>3897.6657709999999</v>
       </c>
       <c r="AE57" s="6">
-        <v>0</v>
+        <v>3902.0185550000001</v>
       </c>
       <c r="AF57" s="6">
-        <v>0</v>
+        <v>3897.7329100000002</v>
       </c>
       <c r="AG57" s="6">
-        <v>0</v>
+        <v>3908.6533199999999</v>
       </c>
       <c r="AH57" s="6">
-        <v>0</v>
+        <v>3913.3833009999998</v>
       </c>
       <c r="AI57" s="6">
-        <v>0</v>
+        <v>3918.1206050000001</v>
       </c>
       <c r="AJ57" s="6">
-        <v>0</v>
+        <v>3931.1528320000002</v>
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
@@ -7630,109 +7636,105 @@
         <v>292</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F58" s="6">
-        <v>0</v>
-      </c>
-      <c r="G58" s="6">
-        <v>0</v>
-      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
       <c r="H58" s="6">
-        <v>0</v>
+        <v>4853.9555659999996</v>
       </c>
       <c r="I58" s="6">
-        <v>0</v>
+        <v>4751.3242190000001</v>
       </c>
       <c r="J58" s="6">
-        <v>0</v>
+        <v>4684.1450199999999</v>
       </c>
       <c r="K58" s="6">
-        <v>0</v>
+        <v>4600.2729490000002</v>
       </c>
       <c r="L58" s="6">
-        <v>0</v>
+        <v>4558.0566410000001</v>
       </c>
       <c r="M58" s="6">
-        <v>0</v>
+        <v>4519.5434569999998</v>
       </c>
       <c r="N58" s="6">
-        <v>0</v>
+        <v>4493.8964839999999</v>
       </c>
       <c r="O58" s="6">
-        <v>0</v>
+        <v>4468.546875</v>
       </c>
       <c r="P58" s="6">
-        <v>0</v>
+        <v>4424.7128910000001</v>
       </c>
       <c r="Q58" s="6">
-        <v>0</v>
+        <v>4374.5537109999996</v>
       </c>
       <c r="R58" s="6">
-        <v>0</v>
+        <v>4341.3872069999998</v>
       </c>
       <c r="S58" s="6">
-        <v>0</v>
+        <v>4329.4892579999996</v>
       </c>
       <c r="T58" s="6">
-        <v>0</v>
+        <v>4321.294922</v>
       </c>
       <c r="U58" s="6">
-        <v>0</v>
+        <v>4306.904297</v>
       </c>
       <c r="V58" s="6">
-        <v>0</v>
+        <v>4288.4169920000004</v>
       </c>
       <c r="W58" s="6">
-        <v>0</v>
+        <v>4286.1567379999997</v>
       </c>
       <c r="X58" s="6">
-        <v>0</v>
+        <v>4264.716797</v>
       </c>
       <c r="Y58" s="6">
-        <v>0</v>
+        <v>4250.8920900000003</v>
       </c>
       <c r="Z58" s="6">
-        <v>0</v>
+        <v>4234.1333009999998</v>
       </c>
       <c r="AA58" s="6">
-        <v>0</v>
+        <v>4242.7905270000001</v>
       </c>
       <c r="AB58" s="6">
-        <v>0</v>
+        <v>4254.9555659999996</v>
       </c>
       <c r="AC58" s="6">
-        <v>0</v>
+        <v>4263.1538090000004</v>
       </c>
       <c r="AD58" s="6">
-        <v>0</v>
+        <v>4265.2661129999997</v>
       </c>
       <c r="AE58" s="6">
-        <v>0</v>
+        <v>4266.6704099999997</v>
       </c>
       <c r="AF58" s="6">
-        <v>0</v>
+        <v>4273.6992190000001</v>
       </c>
       <c r="AG58" s="6">
-        <v>0</v>
+        <v>4276.5415039999998</v>
       </c>
       <c r="AH58" s="6">
-        <v>0</v>
+        <v>4277.5590819999998</v>
       </c>
       <c r="AI58" s="6">
-        <v>0</v>
+        <v>4292.7397460000002</v>
       </c>
       <c r="AJ58" s="6">
-        <v>0</v>
+        <v>4308.5986329999996</v>
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
@@ -7746,103 +7748,103 @@
         <v>290</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F59" s="6">
-        <v>0</v>
+        <v>874.853882</v>
       </c>
       <c r="G59" s="6">
-        <v>0</v>
+        <v>1000.766296</v>
       </c>
       <c r="H59" s="6">
-        <v>0</v>
+        <v>928.96258499999999</v>
       </c>
       <c r="I59" s="6">
-        <v>0</v>
+        <v>867.55957000000001</v>
       </c>
       <c r="J59" s="6">
-        <v>0</v>
+        <v>902.93322799999999</v>
       </c>
       <c r="K59" s="6">
-        <v>0</v>
+        <v>829.46691899999996</v>
       </c>
       <c r="L59" s="6">
-        <v>0</v>
+        <v>719.36694299999999</v>
       </c>
       <c r="M59" s="6">
-        <v>0</v>
+        <v>618.92047100000002</v>
       </c>
       <c r="N59" s="6">
-        <v>0</v>
+        <v>527.64929199999995</v>
       </c>
       <c r="O59" s="6">
-        <v>0</v>
+        <v>459.78680400000002</v>
       </c>
       <c r="P59" s="6">
-        <v>0</v>
+        <v>416.64859000000001</v>
       </c>
       <c r="Q59" s="6">
-        <v>0</v>
+        <v>409.885559</v>
       </c>
       <c r="R59" s="6">
-        <v>0</v>
+        <v>410.72726399999999</v>
       </c>
       <c r="S59" s="6">
-        <v>0</v>
+        <v>420.41888399999999</v>
       </c>
       <c r="T59" s="6">
-        <v>0</v>
+        <v>410.10412600000001</v>
       </c>
       <c r="U59" s="6">
-        <v>0</v>
+        <v>405.74105800000001</v>
       </c>
       <c r="V59" s="6">
-        <v>0</v>
+        <v>397.24383499999999</v>
       </c>
       <c r="W59" s="6">
-        <v>0</v>
+        <v>395.06237800000002</v>
       </c>
       <c r="X59" s="6">
-        <v>0</v>
+        <v>375.91992199999999</v>
       </c>
       <c r="Y59" s="6">
-        <v>0</v>
+        <v>371.72457900000001</v>
       </c>
       <c r="Z59" s="6">
-        <v>0</v>
+        <v>362.52984600000002</v>
       </c>
       <c r="AA59" s="6">
-        <v>0</v>
+        <v>360.74533100000002</v>
       </c>
       <c r="AB59" s="6">
-        <v>0</v>
+        <v>361.35510299999999</v>
       </c>
       <c r="AC59" s="6">
-        <v>0</v>
+        <v>352.64392099999998</v>
       </c>
       <c r="AD59" s="6">
-        <v>0</v>
+        <v>347.44146699999999</v>
       </c>
       <c r="AE59" s="6">
-        <v>0</v>
+        <v>343.61245700000001</v>
       </c>
       <c r="AF59" s="6">
-        <v>0</v>
+        <v>336.77972399999999</v>
       </c>
       <c r="AG59" s="6">
-        <v>0</v>
+        <v>333.81881700000002</v>
       </c>
       <c r="AH59" s="6">
-        <v>0</v>
+        <v>318.29501299999998</v>
       </c>
       <c r="AI59" s="6">
-        <v>0</v>
+        <v>313.34719799999999</v>
       </c>
       <c r="AJ59" s="6">
-        <v>0</v>
+        <v>300.07513399999999</v>
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
@@ -31226,99 +31228,99 @@
         <v>290</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F276" s="4"/>
-      <c r="G276" s="4"/>
-      <c r="H276" s="4">
-        <v>5.4225640000000004</v>
-      </c>
-      <c r="I276" s="4">
-        <v>5.9554470000000004</v>
-      </c>
-      <c r="J276" s="4">
-        <v>7.0726389999999997</v>
-      </c>
-      <c r="K276" s="4">
-        <v>7.7974309999999996</v>
-      </c>
-      <c r="L276" s="4">
-        <v>8.8346070000000001</v>
-      </c>
-      <c r="M276" s="4">
-        <v>10.154070000000001</v>
-      </c>
-      <c r="N276" s="4">
-        <v>11.808878</v>
-      </c>
-      <c r="O276" s="4">
-        <v>13.393601</v>
-      </c>
-      <c r="P276" s="4">
-        <v>15.213952000000001</v>
-      </c>
-      <c r="Q276" s="4">
-        <v>16.510477000000002</v>
-      </c>
-      <c r="R276" s="4">
-        <v>17.799973000000001</v>
-      </c>
-      <c r="S276" s="4">
-        <v>19.305634999999999</v>
-      </c>
-      <c r="T276" s="4">
-        <v>20.860583999999999</v>
-      </c>
-      <c r="U276" s="4">
-        <v>22.214850999999999</v>
-      </c>
-      <c r="V276" s="4">
-        <v>23.285498</v>
-      </c>
-      <c r="W276" s="4">
-        <v>24.714285</v>
-      </c>
-      <c r="X276" s="4">
-        <v>25.469176999999998</v>
-      </c>
-      <c r="Y276" s="4">
-        <v>26.654748999999999</v>
-      </c>
-      <c r="Z276" s="4">
-        <v>27.495718</v>
-      </c>
-      <c r="AA276" s="4">
-        <v>28.513667999999999</v>
-      </c>
-      <c r="AB276" s="4">
-        <v>29.988678</v>
-      </c>
-      <c r="AC276" s="4">
-        <v>31.069133999999998</v>
-      </c>
-      <c r="AD276" s="4">
-        <v>32.054248999999999</v>
-      </c>
-      <c r="AE276" s="4">
-        <v>32.633881000000002</v>
-      </c>
-      <c r="AF276" s="4">
-        <v>33.402907999999996</v>
-      </c>
-      <c r="AG276" s="4">
-        <v>34.086517000000001</v>
-      </c>
-      <c r="AH276" s="4">
-        <v>34.536189999999998</v>
-      </c>
-      <c r="AI276" s="4">
-        <v>35.163722999999997</v>
-      </c>
-      <c r="AJ276" s="4">
-        <v>35.959755000000001</v>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6">
+        <v>929.19750999999997</v>
+      </c>
+      <c r="I276" s="6">
+        <v>872.128784</v>
+      </c>
+      <c r="J276" s="6">
+        <v>901.584656</v>
+      </c>
+      <c r="K276" s="6">
+        <v>832.71356200000002</v>
+      </c>
+      <c r="L276" s="6">
+        <v>777.01342799999998</v>
+      </c>
+      <c r="M276" s="6">
+        <v>738.19860800000004</v>
+      </c>
+      <c r="N276" s="6">
+        <v>707.66980000000001</v>
+      </c>
+      <c r="O276" s="6">
+        <v>690.14917000000003</v>
+      </c>
+      <c r="P276" s="6">
+        <v>667.98364300000003</v>
+      </c>
+      <c r="Q276" s="6">
+        <v>656.66058299999997</v>
+      </c>
+      <c r="R276" s="6">
+        <v>652.12420699999996</v>
+      </c>
+      <c r="S276" s="6">
+        <v>648.51544200000001</v>
+      </c>
+      <c r="T276" s="6">
+        <v>637.33862299999998</v>
+      </c>
+      <c r="U276" s="6">
+        <v>626.41619900000001</v>
+      </c>
+      <c r="V276" s="6">
+        <v>622.14001499999995</v>
+      </c>
+      <c r="W276" s="6">
+        <v>618.59051499999998</v>
+      </c>
+      <c r="X276" s="6">
+        <v>584.04022199999997</v>
+      </c>
+      <c r="Y276" s="6">
+        <v>574.019226</v>
+      </c>
+      <c r="Z276" s="6">
+        <v>543.80169699999999</v>
+      </c>
+      <c r="AA276" s="6">
+        <v>536.48498500000005</v>
+      </c>
+      <c r="AB276" s="6">
+        <v>532.83837900000003</v>
+      </c>
+      <c r="AC276" s="6">
+        <v>525.80627400000003</v>
+      </c>
+      <c r="AD276" s="6">
+        <v>515.74847399999999</v>
+      </c>
+      <c r="AE276" s="6">
+        <v>513.08337400000005</v>
+      </c>
+      <c r="AF276" s="6">
+        <v>511.13250699999998</v>
+      </c>
+      <c r="AG276" s="6">
+        <v>502.99182100000002</v>
+      </c>
+      <c r="AH276" s="6">
+        <v>478.43615699999998</v>
+      </c>
+      <c r="AI276" s="6">
+        <v>473.74349999999998</v>
+      </c>
+      <c r="AJ276" s="6">
+        <v>471.18325800000002</v>
       </c>
     </row>
     <row r="277" spans="1:36" x14ac:dyDescent="0.25">
@@ -31758,109 +31760,105 @@
         <v>292</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E281" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F281" s="4">
-        <v>3.3713860000000002</v>
-      </c>
-      <c r="G281" s="4">
-        <v>4.2577809999999996</v>
-      </c>
+      <c r="F281" s="4"/>
+      <c r="G281" s="4"/>
       <c r="H281" s="4">
-        <v>5.4946409999999997</v>
+        <v>589.39996299999984</v>
       </c>
       <c r="I281" s="4">
-        <v>6.071688</v>
+        <v>590.82324199999994</v>
       </c>
       <c r="J281" s="4">
-        <v>7.3067739999999999</v>
+        <v>566.90585399999998</v>
       </c>
       <c r="K281" s="4">
-        <v>8.0939379999999996</v>
+        <v>570.79183999999987</v>
       </c>
       <c r="L281" s="4">
-        <v>8.8469510000000007</v>
+        <v>573.58908099999996</v>
       </c>
       <c r="M281" s="4">
-        <v>9.5296959999999995</v>
+        <v>574.36200099999996</v>
       </c>
       <c r="N281" s="4">
-        <v>10.350383000000001</v>
+        <v>575.56396399999994</v>
       </c>
       <c r="O281" s="4">
-        <v>11.141771</v>
+        <v>575.51193200000012</v>
       </c>
       <c r="P281" s="4">
-        <v>12.179079</v>
+        <v>574.85650699999997</v>
       </c>
       <c r="Q281" s="4">
-        <v>13.288589999999999</v>
+        <v>573.93862899999999</v>
       </c>
       <c r="R281" s="4">
-        <v>14.67225</v>
+        <v>573.25796500000001</v>
       </c>
       <c r="S281" s="4">
-        <v>15.737824</v>
+        <v>572.36816500000009</v>
       </c>
       <c r="T281" s="4">
-        <v>16.774927000000002</v>
+        <v>571.45718499999998</v>
       </c>
       <c r="U281" s="4">
-        <v>17.843260000000001</v>
+        <v>570.57684300000005</v>
       </c>
       <c r="V281" s="4">
-        <v>18.919573</v>
+        <v>569.71881099999996</v>
       </c>
       <c r="W281" s="4">
-        <v>20.185355999999999</v>
+        <v>568.51138300000002</v>
       </c>
       <c r="X281" s="4">
-        <v>21.199929999999998</v>
+        <v>566.69976800000006</v>
       </c>
       <c r="Y281" s="4">
-        <v>22.230968000000001</v>
+        <v>564.66366500000004</v>
       </c>
       <c r="Z281" s="4">
-        <v>23.066654</v>
+        <v>563.33984400000008</v>
       </c>
       <c r="AA281" s="4">
-        <v>24.240765</v>
+        <v>562.47976600000004</v>
       </c>
       <c r="AB281" s="4">
-        <v>24.884592000000001</v>
+        <v>561.63855000000012</v>
       </c>
       <c r="AC281" s="4">
-        <v>25.446387999999999</v>
+        <v>560.75567600000011</v>
       </c>
       <c r="AD281" s="4">
-        <v>25.939798</v>
+        <v>560.06594900000005</v>
       </c>
       <c r="AE281" s="4">
-        <v>26.211496</v>
+        <v>559.38327000000004</v>
       </c>
       <c r="AF281" s="4">
-        <v>26.291142000000001</v>
+        <v>558.67892400000005</v>
       </c>
       <c r="AG281" s="4">
-        <v>26.801704000000001</v>
+        <v>557.82071000000008</v>
       </c>
       <c r="AH281" s="4">
-        <v>26.809218999999999</v>
+        <v>557.18878100000006</v>
       </c>
       <c r="AI281" s="4">
-        <v>27.156148999999999</v>
+        <v>556.54791299999988</v>
       </c>
       <c r="AJ281" s="4">
-        <v>27.377753999999999</v>
+        <v>555.88262899999995</v>
       </c>
     </row>
     <row r="282" spans="1:36" x14ac:dyDescent="0.25">
@@ -33932,103 +33930,103 @@
         <v>290</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E301" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F301" s="6">
-        <v>16.166993999999999</v>
-      </c>
-      <c r="G301" s="6">
-        <v>17.064997000000002</v>
-      </c>
-      <c r="H301" s="6">
-        <v>8.3659960000000009</v>
-      </c>
-      <c r="I301" s="6">
-        <v>7.9070429999999998</v>
-      </c>
-      <c r="J301" s="6">
-        <v>7.9683719999999996</v>
-      </c>
-      <c r="K301" s="6">
-        <v>7.6988070000000004</v>
-      </c>
-      <c r="L301" s="6">
-        <v>7.0835059999999999</v>
-      </c>
-      <c r="M301" s="6">
-        <v>6.4936369999999997</v>
-      </c>
-      <c r="N301" s="6">
-        <v>5.9018670000000002</v>
-      </c>
-      <c r="O301" s="6">
-        <v>5.5606059999999999</v>
-      </c>
-      <c r="P301" s="6">
-        <v>5.3135690000000002</v>
-      </c>
-      <c r="Q301" s="6">
-        <v>5.0819049999999999</v>
-      </c>
-      <c r="R301" s="6">
-        <v>5.0741839999999998</v>
-      </c>
-      <c r="S301" s="6">
-        <v>5.0749389999999996</v>
-      </c>
-      <c r="T301" s="6">
-        <v>5.0369700000000002</v>
-      </c>
-      <c r="U301" s="6">
-        <v>5.0120829999999996</v>
-      </c>
-      <c r="V301" s="6">
-        <v>4.9339320000000004</v>
-      </c>
-      <c r="W301" s="6">
-        <v>4.8284219999999998</v>
-      </c>
-      <c r="X301" s="6">
-        <v>4.5881270000000001</v>
-      </c>
-      <c r="Y301" s="6">
-        <v>4.5397210000000001</v>
-      </c>
-      <c r="Z301" s="6">
-        <v>4.4557700000000002</v>
-      </c>
-      <c r="AA301" s="6">
-        <v>4.2750690000000002</v>
-      </c>
-      <c r="AB301" s="6">
-        <v>4.0840670000000001</v>
-      </c>
-      <c r="AC301" s="6">
-        <v>3.8548360000000002</v>
-      </c>
-      <c r="AD301" s="6">
-        <v>3.6279650000000001</v>
-      </c>
-      <c r="AE301" s="6">
-        <v>3.4010259999999999</v>
-      </c>
-      <c r="AF301" s="6">
-        <v>3.3939840000000001</v>
-      </c>
-      <c r="AG301" s="6">
-        <v>3.3958219999999999</v>
-      </c>
-      <c r="AH301" s="6">
-        <v>3.36151</v>
-      </c>
-      <c r="AI301" s="6">
-        <v>3.3560530000000002</v>
-      </c>
-      <c r="AJ301" s="6">
-        <v>3.329056</v>
+      <c r="F301" s="4">
+        <v>551.65481600000021</v>
+      </c>
+      <c r="G301" s="4">
+        <v>559.76599099999987</v>
+      </c>
+      <c r="H301" s="4">
+        <v>589.40985100000012</v>
+      </c>
+      <c r="I301" s="4">
+        <v>590.80078099999992</v>
+      </c>
+      <c r="J301" s="4">
+        <v>564.89239500000008</v>
+      </c>
+      <c r="K301" s="4">
+        <v>568.03591900000004</v>
+      </c>
+      <c r="L301" s="4">
+        <v>570.91369599999996</v>
+      </c>
+      <c r="M301" s="4">
+        <v>572.33621300000004</v>
+      </c>
+      <c r="N301" s="4">
+        <v>574.21887199999992</v>
+      </c>
+      <c r="O301" s="4">
+        <v>574.62307699999997</v>
+      </c>
+      <c r="P301" s="4">
+        <v>574.22732500000006</v>
+      </c>
+      <c r="Q301" s="4">
+        <v>573.33709699999997</v>
+      </c>
+      <c r="R301" s="4">
+        <v>572.15560900000003</v>
+      </c>
+      <c r="S301" s="4">
+        <v>571.18577600000003</v>
+      </c>
+      <c r="T301" s="4">
+        <v>569.88885499999992</v>
+      </c>
+      <c r="U301" s="4">
+        <v>568.56223999999997</v>
+      </c>
+      <c r="V301" s="4">
+        <v>567.46629400000006</v>
+      </c>
+      <c r="W301" s="4">
+        <v>566.38711599999988</v>
+      </c>
+      <c r="X301" s="4">
+        <v>564.997253</v>
+      </c>
+      <c r="Y301" s="4">
+        <v>563.55978400000004</v>
+      </c>
+      <c r="Z301" s="4">
+        <v>562.34205599999996</v>
+      </c>
+      <c r="AA301" s="4">
+        <v>561.19499199999996</v>
+      </c>
+      <c r="AB301" s="4">
+        <v>560.2908030000001</v>
+      </c>
+      <c r="AC301" s="4">
+        <v>559.63485700000001</v>
+      </c>
+      <c r="AD301" s="4">
+        <v>559.230501</v>
+      </c>
+      <c r="AE301" s="4">
+        <v>558.68067899999994</v>
+      </c>
+      <c r="AF301" s="4">
+        <v>557.39453100000003</v>
+      </c>
+      <c r="AG301" s="4">
+        <v>556.373154</v>
+      </c>
+      <c r="AH301" s="4">
+        <v>555.55667100000005</v>
+      </c>
+      <c r="AI301" s="4">
+        <v>554.94847100000004</v>
+      </c>
+      <c r="AJ301" s="4">
+        <v>554.28576700000008</v>
       </c>
     </row>
     <row r="302" spans="1:36" x14ac:dyDescent="0.25">
@@ -34042,99 +34040,99 @@
         <v>290</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E302" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F302" s="6"/>
-      <c r="G302" s="6"/>
-      <c r="H302" s="6">
-        <v>8.3778120000000005</v>
-      </c>
-      <c r="I302" s="6">
-        <v>7.9045480000000001</v>
-      </c>
-      <c r="J302" s="6">
-        <v>7.9577920000000004</v>
-      </c>
-      <c r="K302" s="6">
-        <v>7.7015880000000001</v>
-      </c>
-      <c r="L302" s="6">
-        <v>7.2738950000000004</v>
-      </c>
-      <c r="M302" s="6">
-        <v>6.8962070000000004</v>
-      </c>
-      <c r="N302" s="6">
-        <v>6.5242190000000004</v>
-      </c>
-      <c r="O302" s="6">
-        <v>6.3731580000000001</v>
-      </c>
-      <c r="P302" s="6">
-        <v>6.206467</v>
-      </c>
-      <c r="Q302" s="6">
-        <v>5.9603590000000004</v>
-      </c>
-      <c r="R302" s="6">
-        <v>5.9021340000000002</v>
-      </c>
-      <c r="S302" s="6">
-        <v>5.860951</v>
-      </c>
-      <c r="T302" s="6">
-        <v>5.8214249999999996</v>
-      </c>
-      <c r="U302" s="6">
-        <v>5.7884330000000004</v>
-      </c>
-      <c r="V302" s="6">
-        <v>5.7222559999999998</v>
-      </c>
-      <c r="W302" s="6">
-        <v>5.5989190000000004</v>
-      </c>
-      <c r="X302" s="6">
-        <v>5.3243510000000001</v>
-      </c>
-      <c r="Y302" s="6">
-        <v>5.2324359999999999</v>
-      </c>
-      <c r="Z302" s="6">
-        <v>5.0537409999999996</v>
-      </c>
-      <c r="AA302" s="6">
-        <v>4.8273799999999998</v>
-      </c>
-      <c r="AB302" s="6">
-        <v>4.6225630000000004</v>
-      </c>
-      <c r="AC302" s="6">
-        <v>4.3932859999999998</v>
-      </c>
-      <c r="AD302" s="6">
-        <v>4.1513949999999999</v>
-      </c>
-      <c r="AE302" s="6">
-        <v>3.9351919999999998</v>
-      </c>
-      <c r="AF302" s="6">
-        <v>3.9402430000000002</v>
-      </c>
-      <c r="AG302" s="6">
-        <v>3.9174090000000001</v>
-      </c>
-      <c r="AH302" s="6">
-        <v>3.8352810000000002</v>
-      </c>
-      <c r="AI302" s="6">
-        <v>3.8298649999999999</v>
-      </c>
-      <c r="AJ302" s="6">
-        <v>3.8442669999999999</v>
+      <c r="F302" s="4"/>
+      <c r="G302" s="4"/>
+      <c r="H302" s="4">
+        <v>253.99926699999997</v>
+      </c>
+      <c r="I302" s="4">
+        <v>254.48809799999998</v>
+      </c>
+      <c r="J302" s="4">
+        <v>247.70071499999995</v>
+      </c>
+      <c r="K302" s="4">
+        <v>250.05191099999996</v>
+      </c>
+      <c r="L302" s="4">
+        <v>251.73809799999992</v>
+      </c>
+      <c r="M302" s="4">
+        <v>252.14535600000005</v>
+      </c>
+      <c r="N302" s="4">
+        <v>253.41104100000001</v>
+      </c>
+      <c r="O302" s="4">
+        <v>254.01666200000005</v>
+      </c>
+      <c r="P302" s="4">
+        <v>254.36843899999997</v>
+      </c>
+      <c r="Q302" s="4">
+        <v>254.63842800000003</v>
+      </c>
+      <c r="R302" s="4">
+        <v>255.05850199999998</v>
+      </c>
+      <c r="S302" s="4">
+        <v>255.29226699999998</v>
+      </c>
+      <c r="T302" s="4">
+        <v>255.44830400000001</v>
+      </c>
+      <c r="U302" s="4">
+        <v>255.55859400000003</v>
+      </c>
+      <c r="V302" s="4">
+        <v>255.58264199999996</v>
+      </c>
+      <c r="W302" s="4">
+        <v>255.31433099999998</v>
+      </c>
+      <c r="X302" s="4">
+        <v>254.66439800000006</v>
+      </c>
+      <c r="Y302" s="4">
+        <v>253.86907899999994</v>
+      </c>
+      <c r="Z302" s="4">
+        <v>253.41409300000004</v>
+      </c>
+      <c r="AA302" s="4">
+        <v>253.17944300000005</v>
+      </c>
+      <c r="AB302" s="4">
+        <v>252.92416400000002</v>
+      </c>
+      <c r="AC302" s="4">
+        <v>252.63168300000007</v>
+      </c>
+      <c r="AD302" s="4">
+        <v>252.45907600000004</v>
+      </c>
+      <c r="AE302" s="4">
+        <v>252.28256199999998</v>
+      </c>
+      <c r="AF302" s="4">
+        <v>252.09378000000004</v>
+      </c>
+      <c r="AG302" s="4">
+        <v>251.81341600000002</v>
+      </c>
+      <c r="AH302" s="4">
+        <v>251.69360300000005</v>
+      </c>
+      <c r="AI302" s="4">
+        <v>251.57150299999995</v>
+      </c>
+      <c r="AJ302" s="4">
+        <v>251.45129399999996</v>
       </c>
     </row>
     <row r="303" spans="1:36" x14ac:dyDescent="0.25">
@@ -45706,103 +45704,103 @@
         <v>290</v>
       </c>
       <c r="D410" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E410" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F410" s="6">
-        <v>44.643379000000003</v>
-      </c>
-      <c r="G410" s="6">
-        <v>46.340682999999999</v>
-      </c>
-      <c r="H410" s="6">
-        <v>47.922488999999999</v>
-      </c>
-      <c r="I410" s="6">
-        <v>43.419913999999999</v>
-      </c>
-      <c r="J410" s="6">
-        <v>40.277442999999998</v>
-      </c>
-      <c r="K410" s="6">
-        <v>38.421135</v>
-      </c>
-      <c r="L410" s="6">
-        <v>36.843155000000003</v>
-      </c>
-      <c r="M410" s="6">
-        <v>34.622700000000002</v>
-      </c>
-      <c r="N410" s="6">
-        <v>32.436630000000001</v>
-      </c>
-      <c r="O410" s="6">
-        <v>32.326763</v>
-      </c>
-      <c r="P410" s="6">
-        <v>32.252972</v>
-      </c>
-      <c r="Q410" s="6">
-        <v>32.372456</v>
-      </c>
-      <c r="R410" s="6">
-        <v>32.738151999999999</v>
-      </c>
-      <c r="S410" s="6">
-        <v>33.094569999999997</v>
-      </c>
-      <c r="T410" s="6">
-        <v>33.326416000000002</v>
-      </c>
-      <c r="U410" s="6">
-        <v>33.432651999999997</v>
-      </c>
-      <c r="V410" s="6">
-        <v>33.518073999999999</v>
-      </c>
-      <c r="W410" s="6">
-        <v>33.409202999999998</v>
-      </c>
-      <c r="X410" s="6">
-        <v>33.683928999999999</v>
-      </c>
-      <c r="Y410" s="6">
-        <v>33.769150000000003</v>
-      </c>
-      <c r="Z410" s="6">
-        <v>34.104706</v>
-      </c>
-      <c r="AA410" s="6">
-        <v>34.494877000000002</v>
-      </c>
-      <c r="AB410" s="6">
-        <v>34.746941</v>
-      </c>
-      <c r="AC410" s="6">
-        <v>34.898369000000002</v>
-      </c>
-      <c r="AD410" s="6">
-        <v>35.205852999999998</v>
-      </c>
-      <c r="AE410" s="6">
-        <v>35.383823</v>
-      </c>
-      <c r="AF410" s="6">
-        <v>35.639206000000001</v>
-      </c>
-      <c r="AG410" s="6">
-        <v>36.077553000000002</v>
-      </c>
-      <c r="AH410" s="6">
-        <v>36.387507999999997</v>
-      </c>
-      <c r="AI410" s="6">
-        <v>36.491661000000001</v>
-      </c>
-      <c r="AJ410" s="6">
-        <v>36.796616</v>
+      <c r="F410" s="4">
+        <v>233.09005800000006</v>
+      </c>
+      <c r="G410" s="4">
+        <v>241.30682299999989</v>
+      </c>
+      <c r="H410" s="4">
+        <v>254.00915500000002</v>
+      </c>
+      <c r="I410" s="4">
+        <v>254.46563699999996</v>
+      </c>
+      <c r="J410" s="4">
+        <v>247.640197</v>
+      </c>
+      <c r="K410" s="4">
+        <v>249.84939600000001</v>
+      </c>
+      <c r="L410" s="4">
+        <v>251.92312600000002</v>
+      </c>
+      <c r="M410" s="4">
+        <v>253.033661</v>
+      </c>
+      <c r="N410" s="4">
+        <v>255.00207499999999</v>
+      </c>
+      <c r="O410" s="4">
+        <v>256.16442799999999</v>
+      </c>
+      <c r="P410" s="4">
+        <v>256.90954600000003</v>
+      </c>
+      <c r="Q410" s="4">
+        <v>257.48434399999996</v>
+      </c>
+      <c r="R410" s="4">
+        <v>257.85382000000004</v>
+      </c>
+      <c r="S410" s="4">
+        <v>257.90687600000001</v>
+      </c>
+      <c r="T410" s="4">
+        <v>257.81030299999998</v>
+      </c>
+      <c r="U410" s="4">
+        <v>257.61729400000002</v>
+      </c>
+      <c r="V410" s="4">
+        <v>257.47627299999999</v>
+      </c>
+      <c r="W410" s="4">
+        <v>257.24237099999999</v>
+      </c>
+      <c r="X410" s="4">
+        <v>256.75625600000001</v>
+      </c>
+      <c r="Y410" s="4">
+        <v>256.18591300000003</v>
+      </c>
+      <c r="Z410" s="4">
+        <v>255.658828</v>
+      </c>
+      <c r="AA410" s="4">
+        <v>255.15370200000001</v>
+      </c>
+      <c r="AB410" s="4">
+        <v>254.79205400000001</v>
+      </c>
+      <c r="AC410" s="4">
+        <v>254.56781000000001</v>
+      </c>
+      <c r="AD410" s="4">
+        <v>254.46905599999999</v>
+      </c>
+      <c r="AE410" s="4">
+        <v>254.25575299999997</v>
+      </c>
+      <c r="AF410" s="4">
+        <v>253.65072599999999</v>
+      </c>
+      <c r="AG410" s="4">
+        <v>253.211624</v>
+      </c>
+      <c r="AH410" s="4">
+        <v>252.869598</v>
+      </c>
+      <c r="AI410" s="4">
+        <v>252.64711</v>
+      </c>
+      <c r="AJ410" s="4">
+        <v>252.39279200000001</v>
       </c>
     </row>
     <row r="411" spans="1:36" x14ac:dyDescent="0.25">
@@ -45810,105 +45808,109 @@
         <v>292</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D411" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E411" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F411" s="6"/>
-      <c r="G411" s="6"/>
-      <c r="H411" s="6">
-        <v>47.923614999999998</v>
-      </c>
-      <c r="I411" s="6">
-        <v>42.598323999999998</v>
-      </c>
-      <c r="J411" s="6">
-        <v>39.277110999999998</v>
-      </c>
-      <c r="K411" s="6">
-        <v>38.472492000000003</v>
-      </c>
-      <c r="L411" s="6">
-        <v>37.336509999999997</v>
-      </c>
-      <c r="M411" s="6">
-        <v>35.690700999999997</v>
-      </c>
-      <c r="N411" s="6">
-        <v>33.943455</v>
-      </c>
-      <c r="O411" s="6">
-        <v>33.803631000000003</v>
-      </c>
-      <c r="P411" s="6">
-        <v>33.426430000000003</v>
-      </c>
-      <c r="Q411" s="6">
-        <v>33.190029000000003</v>
-      </c>
-      <c r="R411" s="6">
-        <v>33.004340999999997</v>
-      </c>
-      <c r="S411" s="6">
-        <v>33.193519999999999</v>
-      </c>
-      <c r="T411" s="6">
-        <v>33.402813000000002</v>
-      </c>
-      <c r="U411" s="6">
-        <v>33.547038999999998</v>
-      </c>
-      <c r="V411" s="6">
-        <v>33.578754000000004</v>
-      </c>
-      <c r="W411" s="6">
-        <v>33.764187</v>
-      </c>
-      <c r="X411" s="6">
-        <v>34.014595</v>
-      </c>
-      <c r="Y411" s="6">
-        <v>34.213318000000001</v>
-      </c>
-      <c r="Z411" s="6">
-        <v>34.656494000000002</v>
-      </c>
-      <c r="AA411" s="6">
-        <v>35.018475000000002</v>
-      </c>
-      <c r="AB411" s="6">
-        <v>35.342686</v>
-      </c>
-      <c r="AC411" s="6">
-        <v>35.666283</v>
-      </c>
-      <c r="AD411" s="6">
-        <v>36.195202000000002</v>
-      </c>
-      <c r="AE411" s="6">
-        <v>36.622039999999998</v>
-      </c>
-      <c r="AF411" s="6">
-        <v>37.187427999999997</v>
-      </c>
-      <c r="AG411" s="6">
-        <v>37.660617999999999</v>
-      </c>
-      <c r="AH411" s="6">
-        <v>37.84301</v>
-      </c>
-      <c r="AI411" s="6">
-        <v>37.870106</v>
-      </c>
-      <c r="AJ411" s="6">
-        <v>38.370269999999998</v>
+      <c r="F411" s="4">
+        <v>489.03109699999999</v>
+      </c>
+      <c r="G411" s="4">
+        <v>527.30468800000006</v>
+      </c>
+      <c r="H411" s="4">
+        <v>510.97058099999998</v>
+      </c>
+      <c r="I411" s="4">
+        <v>470.55499300000002</v>
+      </c>
+      <c r="J411" s="4">
+        <v>470.81536899999998</v>
+      </c>
+      <c r="K411" s="4">
+        <v>433.585846</v>
+      </c>
+      <c r="L411" s="4">
+        <v>386.15048200000001</v>
+      </c>
+      <c r="M411" s="4">
+        <v>338.70053100000001</v>
+      </c>
+      <c r="N411" s="4">
+        <v>302.12548800000002</v>
+      </c>
+      <c r="O411" s="4">
+        <v>274.33972199999999</v>
+      </c>
+      <c r="P411" s="4">
+        <v>255.35998499999999</v>
+      </c>
+      <c r="Q411" s="4">
+        <v>248.856934</v>
+      </c>
+      <c r="R411" s="4">
+        <v>247.34567300000001</v>
+      </c>
+      <c r="S411" s="4">
+        <v>244.858383</v>
+      </c>
+      <c r="T411" s="4">
+        <v>238.41213999999999</v>
+      </c>
+      <c r="U411" s="4">
+        <v>234.65516700000001</v>
+      </c>
+      <c r="V411" s="4">
+        <v>231.635727</v>
+      </c>
+      <c r="W411" s="4">
+        <v>231.51623499999999</v>
+      </c>
+      <c r="X411" s="4">
+        <v>228.125946</v>
+      </c>
+      <c r="Y411" s="4">
+        <v>227.48843400000001</v>
+      </c>
+      <c r="Z411" s="4">
+        <v>225.78959699999999</v>
+      </c>
+      <c r="AA411" s="4">
+        <v>226.82560699999999</v>
+      </c>
+      <c r="AB411" s="4">
+        <v>226.79577599999999</v>
+      </c>
+      <c r="AC411" s="4">
+        <v>224.72546399999999</v>
+      </c>
+      <c r="AD411" s="4">
+        <v>223.54141200000001</v>
+      </c>
+      <c r="AE411" s="4">
+        <v>222.11198400000001</v>
+      </c>
+      <c r="AF411" s="4">
+        <v>218.48440600000001</v>
+      </c>
+      <c r="AG411" s="4">
+        <v>217.64146400000001</v>
+      </c>
+      <c r="AH411" s="4">
+        <v>214.525238</v>
+      </c>
+      <c r="AI411" s="4">
+        <v>213.14537000000001</v>
+      </c>
+      <c r="AJ411" s="4">
+        <v>210.43454</v>
       </c>
     </row>
     <row r="412" spans="1:36" x14ac:dyDescent="0.25">
@@ -49156,109 +49158,105 @@
         <v>292</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D442" s="5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E442" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F442" s="6">
-        <v>215.97618778540104</v>
-      </c>
-      <c r="G442" s="6">
-        <v>215.72605419208315</v>
-      </c>
-      <c r="H442" s="6">
-        <v>216.92609277551693</v>
-      </c>
-      <c r="I442" s="6">
-        <v>223.63806480757034</v>
-      </c>
-      <c r="J442" s="6">
-        <v>214.55915741315775</v>
-      </c>
-      <c r="K442" s="6">
-        <v>214.1463674716251</v>
-      </c>
-      <c r="L442" s="6">
-        <v>214.89996808040416</v>
-      </c>
-      <c r="M442" s="6">
-        <v>215.51032404053061</v>
-      </c>
-      <c r="N442" s="6">
-        <v>217.84810349656721</v>
-      </c>
-      <c r="O442" s="6">
-        <v>220.51577900406068</v>
-      </c>
-      <c r="P442" s="6">
-        <v>221.60536998224794</v>
-      </c>
-      <c r="Q442" s="6">
-        <v>221.48245121481844</v>
-      </c>
-      <c r="R442" s="6">
-        <v>221.94596777318927</v>
-      </c>
-      <c r="S442" s="6">
-        <v>221.95410624789972</v>
-      </c>
-      <c r="T442" s="6">
-        <v>223.36854489343608</v>
-      </c>
-      <c r="U442" s="6">
-        <v>222.8786562611387</v>
-      </c>
-      <c r="V442" s="6">
-        <v>223.16941970998295</v>
-      </c>
-      <c r="W442" s="6">
-        <v>223.25460666617138</v>
-      </c>
-      <c r="X442" s="6">
-        <v>223.55042908080196</v>
-      </c>
-      <c r="Y442" s="6">
-        <v>223.93300346375776</v>
-      </c>
-      <c r="Z442" s="6">
-        <v>224.58332721042996</v>
-      </c>
-      <c r="AA442" s="6">
-        <v>224.67684143622034</v>
-      </c>
-      <c r="AB442" s="6">
-        <v>224.92359760188231</v>
-      </c>
-      <c r="AC442" s="6">
-        <v>225.45151240476142</v>
-      </c>
-      <c r="AD442" s="6">
-        <v>225.68002800357556</v>
-      </c>
-      <c r="AE442" s="6">
-        <v>225.7192827565251</v>
-      </c>
-      <c r="AF442" s="6">
-        <v>223.48688049469465</v>
-      </c>
-      <c r="AG442" s="6">
-        <v>224.85362400459999</v>
-      </c>
-      <c r="AH442" s="6">
-        <v>228.01451378877567</v>
-      </c>
-      <c r="AI442" s="6">
-        <v>228.05402422163024</v>
-      </c>
-      <c r="AJ442" s="6">
-        <v>228.05857375029905</v>
+      <c r="F442" s="4"/>
+      <c r="G442" s="4"/>
+      <c r="H442" s="4">
+        <v>511.18383799999998</v>
+      </c>
+      <c r="I442" s="4">
+        <v>473.19409200000001</v>
+      </c>
+      <c r="J442" s="4">
+        <v>469.77255200000002</v>
+      </c>
+      <c r="K442" s="4">
+        <v>442.11105300000003</v>
+      </c>
+      <c r="L442" s="4">
+        <v>422.40741000000003</v>
+      </c>
+      <c r="M442" s="4">
+        <v>407.801849</v>
+      </c>
+      <c r="N442" s="4">
+        <v>400.84066799999999</v>
+      </c>
+      <c r="O442" s="4">
+        <v>395.84851099999997</v>
+      </c>
+      <c r="P442" s="4">
+        <v>387.17300399999999</v>
+      </c>
+      <c r="Q442" s="4">
+        <v>376.4599</v>
+      </c>
+      <c r="R442" s="4">
+        <v>368.02346799999998</v>
+      </c>
+      <c r="S442" s="4">
+        <v>365.600616</v>
+      </c>
+      <c r="T442" s="4">
+        <v>363.16223100000002</v>
+      </c>
+      <c r="U442" s="4">
+        <v>358.192566</v>
+      </c>
+      <c r="V442" s="4">
+        <v>352.484375</v>
+      </c>
+      <c r="W442" s="4">
+        <v>351.248535</v>
+      </c>
+      <c r="X442" s="4">
+        <v>344.16555799999998</v>
+      </c>
+      <c r="Y442" s="4">
+        <v>340.65399200000002</v>
+      </c>
+      <c r="Z442" s="4">
+        <v>332.93319700000001</v>
+      </c>
+      <c r="AA442" s="4">
+        <v>331.43743899999998</v>
+      </c>
+      <c r="AB442" s="4">
+        <v>332.312408</v>
+      </c>
+      <c r="AC442" s="4">
+        <v>331.97763099999997</v>
+      </c>
+      <c r="AD442" s="4">
+        <v>331.12515300000001</v>
+      </c>
+      <c r="AE442" s="4">
+        <v>329.61990400000002</v>
+      </c>
+      <c r="AF442" s="4">
+        <v>329.358429</v>
+      </c>
+      <c r="AG442" s="4">
+        <v>327.36651599999999</v>
+      </c>
+      <c r="AH442" s="4">
+        <v>322.30651899999998</v>
+      </c>
+      <c r="AI442" s="4">
+        <v>322.69863900000001</v>
+      </c>
+      <c r="AJ442" s="4">
+        <v>323.143372</v>
       </c>
     </row>
     <row r="443" spans="1:36" x14ac:dyDescent="0.25">
@@ -49266,105 +49264,109 @@
         <v>292</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D443" s="5" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E443" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F443" s="6"/>
-      <c r="G443" s="6"/>
-      <c r="H443" s="6">
-        <v>216.96841387526359</v>
-      </c>
-      <c r="I443" s="6">
-        <v>223.68221875846498</v>
-      </c>
-      <c r="J443" s="6">
-        <v>215.61746229374688</v>
-      </c>
-      <c r="K443" s="6">
-        <v>214.5110143393552</v>
-      </c>
-      <c r="L443" s="6">
-        <v>215.97494580577319</v>
-      </c>
-      <c r="M443" s="6">
-        <v>216.79542886437278</v>
-      </c>
-      <c r="N443" s="6">
-        <v>218.74949071166532</v>
-      </c>
-      <c r="O443" s="6">
-        <v>220.29044309739083</v>
-      </c>
-      <c r="P443" s="6">
-        <v>221.6708510722018</v>
-      </c>
-      <c r="Q443" s="6">
-        <v>220.6958791603312</v>
-      </c>
-      <c r="R443" s="6">
-        <v>220.65168460536651</v>
-      </c>
-      <c r="S443" s="6">
-        <v>221.38113694317602</v>
-      </c>
-      <c r="T443" s="6">
-        <v>223.61926638805105</v>
-      </c>
-      <c r="U443" s="6">
-        <v>223.59498250701662</v>
-      </c>
-      <c r="V443" s="6">
-        <v>225.18581718501557</v>
-      </c>
-      <c r="W443" s="6">
-        <v>226.03847398071775</v>
-      </c>
-      <c r="X443" s="6">
-        <v>225.10927786021645</v>
-      </c>
-      <c r="Y443" s="6">
-        <v>223.38138415361414</v>
-      </c>
-      <c r="Z443" s="6">
-        <v>222.93183335375227</v>
-      </c>
-      <c r="AA443" s="6">
-        <v>223.3221193882741</v>
-      </c>
-      <c r="AB443" s="6">
-        <v>223.62268187447791</v>
-      </c>
-      <c r="AC443" s="6">
-        <v>223.90756056666837</v>
-      </c>
-      <c r="AD443" s="6">
-        <v>223.34408169746143</v>
-      </c>
-      <c r="AE443" s="6">
-        <v>224.14532588521953</v>
-      </c>
-      <c r="AF443" s="6">
-        <v>225.16249582421943</v>
-      </c>
-      <c r="AG443" s="6">
-        <v>225.91064802902457</v>
-      </c>
-      <c r="AH443" s="6">
-        <v>229.35683258409375</v>
+      <c r="F443" s="6">
+        <v>1052.532379</v>
+      </c>
+      <c r="G443" s="6">
+        <v>1123.158936</v>
+      </c>
+      <c r="H443" s="4">
+        <v>1092.453796</v>
+      </c>
+      <c r="I443" s="4">
+        <v>1006.819886</v>
+      </c>
+      <c r="J443" s="4">
+        <v>1010.5260619999999</v>
+      </c>
+      <c r="K443" s="4">
+        <v>934.75387599999999</v>
+      </c>
+      <c r="L443" s="4">
+        <v>834.46423300000004</v>
+      </c>
+      <c r="M443" s="4">
+        <v>733.81039400000009</v>
+      </c>
+      <c r="N443" s="4">
+        <v>654.56634499999996</v>
+      </c>
+      <c r="O443" s="4">
+        <v>594.45858799999996</v>
+      </c>
+      <c r="P443" s="4">
+        <v>553.05490099999997</v>
+      </c>
+      <c r="Q443" s="4">
+        <v>538.33902</v>
+      </c>
+      <c r="R443" s="4">
+        <v>534.59869400000002</v>
+      </c>
+      <c r="S443" s="4">
+        <v>529.66590900000006</v>
+      </c>
+      <c r="T443" s="4">
+        <v>516.00253299999997</v>
+      </c>
+      <c r="U443" s="4">
+        <v>508.63624600000003</v>
+      </c>
+      <c r="V443" s="4">
+        <v>503.10414100000003</v>
+      </c>
+      <c r="W443" s="4">
+        <v>504.053741</v>
+      </c>
+      <c r="X443" s="4">
+        <v>498.26593000000003</v>
+      </c>
+      <c r="Y443" s="4">
+        <v>498.16516100000001</v>
+      </c>
+      <c r="Z443" s="4">
+        <v>495.55229199999997</v>
+      </c>
+      <c r="AA443" s="4">
+        <v>498.46119699999997</v>
+      </c>
+      <c r="AB443" s="4">
+        <v>499.43710299999998</v>
+      </c>
+      <c r="AC443" s="4">
+        <v>495.83212299999997</v>
+      </c>
+      <c r="AD443" s="4">
+        <v>494.09338300000002</v>
+      </c>
+      <c r="AE443" s="4">
+        <v>491.97416700000002</v>
+      </c>
+      <c r="AF443" s="4">
+        <v>484.92602599999998</v>
+      </c>
+      <c r="AG443" s="4">
+        <v>483.69300799999996</v>
+      </c>
+      <c r="AH443" s="4">
+        <v>477.73208599999998</v>
       </c>
       <c r="AI443" s="6">
-        <v>230.34212698458538</v>
+        <v>474.75453099999999</v>
       </c>
       <c r="AJ443" s="6">
-        <v>229.88034223731728</v>
+        <v>469.02349900000002</v>
       </c>
     </row>
     <row r="444" spans="1:36" x14ac:dyDescent="0.25">
@@ -49378,99 +49380,99 @@
         <v>290</v>
       </c>
       <c r="D444" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E444" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F444" s="4"/>
-      <c r="G444" s="4"/>
+      <c r="F444" s="6"/>
+      <c r="G444" s="6"/>
       <c r="H444" s="4">
-        <v>253.99926699999997</v>
+        <v>1093.144104</v>
       </c>
       <c r="I444" s="4">
-        <v>254.48809799999998</v>
+        <v>1012.4879760000001</v>
       </c>
       <c r="J444" s="4">
-        <v>247.70071499999995</v>
+        <v>1010.815826</v>
       </c>
       <c r="K444" s="4">
-        <v>250.05191099999996</v>
+        <v>957.37698300000011</v>
       </c>
       <c r="L444" s="4">
-        <v>251.73809799999992</v>
+        <v>918.755402</v>
       </c>
       <c r="M444" s="4">
-        <v>252.14535600000005</v>
+        <v>891.03613199999995</v>
       </c>
       <c r="N444" s="4">
-        <v>253.41104100000001</v>
+        <v>876.00787400000002</v>
       </c>
       <c r="O444" s="4">
-        <v>254.01666200000005</v>
+        <v>865.84329200000002</v>
       </c>
       <c r="P444" s="4">
-        <v>254.36843899999997</v>
+        <v>845.90515099999993</v>
       </c>
       <c r="Q444" s="4">
-        <v>254.63842800000003</v>
+        <v>821.80062900000007</v>
       </c>
       <c r="R444" s="4">
-        <v>255.05850199999998</v>
+        <v>802.38870199999997</v>
       </c>
       <c r="S444" s="4">
-        <v>255.29226699999998</v>
+        <v>797.41973800000005</v>
       </c>
       <c r="T444" s="4">
-        <v>255.44830400000001</v>
+        <v>792.36184600000001</v>
       </c>
       <c r="U444" s="4">
-        <v>255.55859400000003</v>
+        <v>782.45983899999999</v>
       </c>
       <c r="V444" s="4">
-        <v>255.58264199999996</v>
+        <v>771.46282999999994</v>
       </c>
       <c r="W444" s="4">
-        <v>255.31433099999998</v>
+        <v>770.236175</v>
       </c>
       <c r="X444" s="4">
-        <v>254.66439800000006</v>
+        <v>756.92034899999999</v>
       </c>
       <c r="Y444" s="4">
-        <v>253.86907899999994</v>
+        <v>751.02932800000008</v>
       </c>
       <c r="Z444" s="4">
-        <v>253.41409300000004</v>
+        <v>735.25744600000007</v>
       </c>
       <c r="AA444" s="4">
-        <v>253.17944300000005</v>
+        <v>733.39773600000001</v>
       </c>
       <c r="AB444" s="4">
-        <v>252.92416400000002</v>
+        <v>736.60809300000005</v>
       </c>
       <c r="AC444" s="4">
-        <v>252.63168300000007</v>
+        <v>737.13085999999998</v>
       </c>
       <c r="AD444" s="4">
-        <v>252.45907600000004</v>
+        <v>736.33023100000003</v>
       </c>
       <c r="AE444" s="4">
-        <v>252.28256199999998</v>
+        <v>734.36257999999998</v>
       </c>
       <c r="AF444" s="4">
-        <v>252.09378000000004</v>
+        <v>735.32186899999999</v>
       </c>
       <c r="AG444" s="4">
-        <v>251.81341600000002</v>
+        <v>731.74221799999998</v>
       </c>
       <c r="AH444" s="4">
-        <v>251.69360300000005</v>
-      </c>
-      <c r="AI444" s="4">
-        <v>251.57150299999995</v>
-      </c>
-      <c r="AJ444" s="4">
-        <v>251.45129399999996</v>
+        <v>721.162781</v>
+      </c>
+      <c r="AI444" s="6">
+        <v>723.00384499999996</v>
+      </c>
+      <c r="AJ444" s="6">
+        <v>724.61828700000001</v>
       </c>
     </row>
     <row r="445" spans="1:36" x14ac:dyDescent="0.25">
@@ -49478,109 +49480,105 @@
         <v>292</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D445" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E445" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F445" s="4">
-        <v>233.09005800000006</v>
-      </c>
-      <c r="G445" s="4">
-        <v>241.30682299999989</v>
-      </c>
+      <c r="F445" s="6"/>
+      <c r="G445" s="6"/>
       <c r="H445" s="4">
-        <v>254.00915500000002</v>
+        <v>335.40069599999993</v>
       </c>
       <c r="I445" s="4">
-        <v>254.46563699999996</v>
+        <v>336.3351439999999</v>
       </c>
       <c r="J445" s="4">
-        <v>247.640197</v>
+        <v>319.20513900000003</v>
       </c>
       <c r="K445" s="4">
-        <v>249.84939600000001</v>
+        <v>320.73992899999996</v>
       </c>
       <c r="L445" s="4">
-        <v>251.92312600000002</v>
+        <v>321.85098300000004</v>
       </c>
       <c r="M445" s="4">
-        <v>253.033661</v>
+        <v>322.21664499999997</v>
       </c>
       <c r="N445" s="4">
-        <v>255.00207499999999</v>
+        <v>322.15292299999993</v>
       </c>
       <c r="O445" s="4">
-        <v>256.16442799999999</v>
+        <v>321.49527</v>
       </c>
       <c r="P445" s="4">
-        <v>256.90954600000003</v>
+        <v>320.48806800000006</v>
       </c>
       <c r="Q445" s="4">
-        <v>257.48434399999996</v>
+        <v>319.30020100000002</v>
       </c>
       <c r="R445" s="4">
-        <v>257.85382000000004</v>
+        <v>318.19946300000004</v>
       </c>
       <c r="S445" s="4">
-        <v>257.90687600000001</v>
+        <v>317.07589800000005</v>
       </c>
       <c r="T445" s="4">
-        <v>257.81030299999998</v>
+        <v>316.00888099999997</v>
       </c>
       <c r="U445" s="4">
-        <v>257.61729400000002</v>
+        <v>315.01824900000003</v>
       </c>
       <c r="V445" s="4">
-        <v>257.47627299999999</v>
+        <v>314.13616900000005</v>
       </c>
       <c r="W445" s="4">
-        <v>257.24237099999999</v>
+        <v>313.19705200000004</v>
       </c>
       <c r="X445" s="4">
-        <v>256.75625600000001</v>
+        <v>312.03537</v>
       </c>
       <c r="Y445" s="4">
-        <v>256.18591300000003</v>
+        <v>310.79458600000004</v>
       </c>
       <c r="Z445" s="4">
-        <v>255.658828</v>
+        <v>309.92575099999999</v>
       </c>
       <c r="AA445" s="4">
-        <v>255.15370200000001</v>
+        <v>309.30032299999999</v>
       </c>
       <c r="AB445" s="4">
-        <v>254.79205400000001</v>
+        <v>308.71438600000005</v>
       </c>
       <c r="AC445" s="4">
-        <v>254.56781000000001</v>
+        <v>308.12399300000004</v>
       </c>
       <c r="AD445" s="4">
-        <v>254.46905599999999</v>
+        <v>307.60687300000001</v>
       </c>
       <c r="AE445" s="4">
-        <v>254.25575299999997</v>
+        <v>307.100708</v>
       </c>
       <c r="AF445" s="4">
-        <v>253.65072599999999</v>
+        <v>306.58514400000001</v>
       </c>
       <c r="AG445" s="4">
-        <v>253.211624</v>
+        <v>306.00729400000006</v>
       </c>
       <c r="AH445" s="4">
-        <v>252.869598</v>
-      </c>
-      <c r="AI445" s="4">
-        <v>252.64711</v>
-      </c>
-      <c r="AJ445" s="4">
-        <v>252.39279200000001</v>
+        <v>305.49517800000001</v>
+      </c>
+      <c r="AI445" s="6">
+        <v>304.97640999999999</v>
+      </c>
+      <c r="AJ445" s="6">
+        <v>304.43133499999999</v>
       </c>
     </row>
     <row r="446" spans="1:36" x14ac:dyDescent="0.25">
@@ -50236,7 +50234,7 @@
         <v>292</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>290</v>
@@ -50247,94 +50245,98 @@
       <c r="E452" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F452" s="6"/>
-      <c r="G452" s="6"/>
+      <c r="F452" s="6">
+        <v>318.5647580000001</v>
+      </c>
+      <c r="G452" s="6">
+        <v>318.45916799999998</v>
+      </c>
       <c r="H452" s="4">
-        <v>335.40069599999993</v>
+        <v>335.40069600000004</v>
       </c>
       <c r="I452" s="4">
-        <v>336.3351439999999</v>
+        <v>336.33514400000001</v>
       </c>
       <c r="J452" s="4">
-        <v>319.20513900000003</v>
+        <v>317.25219800000002</v>
       </c>
       <c r="K452" s="4">
-        <v>320.73992899999996</v>
+        <v>318.18652300000002</v>
       </c>
       <c r="L452" s="4">
-        <v>321.85098300000004</v>
+        <v>318.99056999999993</v>
       </c>
       <c r="M452" s="4">
-        <v>322.21664499999997</v>
+        <v>319.30255199999999</v>
       </c>
       <c r="N452" s="4">
-        <v>322.15292299999993</v>
+        <v>319.21679699999999</v>
       </c>
       <c r="O452" s="4">
-        <v>321.49527</v>
+        <v>318.45864899999992</v>
       </c>
       <c r="P452" s="4">
-        <v>320.48806800000006</v>
+        <v>317.31777900000003</v>
       </c>
       <c r="Q452" s="4">
-        <v>319.30020100000002</v>
+        <v>315.85275300000001</v>
       </c>
       <c r="R452" s="4">
-        <v>318.19946300000004</v>
+        <v>314.30178899999999</v>
       </c>
       <c r="S452" s="4">
-        <v>317.07589800000005</v>
+        <v>313.27889999999996</v>
       </c>
       <c r="T452" s="4">
-        <v>316.00888099999997</v>
+        <v>312.078552</v>
       </c>
       <c r="U452" s="4">
-        <v>315.01824900000003</v>
+        <v>310.94494599999996</v>
       </c>
       <c r="V452" s="4">
-        <v>314.13616900000005</v>
+        <v>309.99002100000001</v>
       </c>
       <c r="W452" s="4">
-        <v>313.19705200000004</v>
+        <v>309.14474499999994</v>
       </c>
       <c r="X452" s="4">
-        <v>312.03537</v>
+        <v>308.24099699999999</v>
       </c>
       <c r="Y452" s="4">
-        <v>310.79458600000004</v>
+        <v>307.37387100000001</v>
       </c>
       <c r="Z452" s="4">
-        <v>309.92575099999999</v>
+        <v>306.68322799999999</v>
       </c>
       <c r="AA452" s="4">
-        <v>309.30032299999999</v>
+        <v>306.04129</v>
       </c>
       <c r="AB452" s="4">
-        <v>308.71438600000005</v>
+        <v>305.49874900000003</v>
       </c>
       <c r="AC452" s="4">
-        <v>308.12399300000004</v>
+        <v>305.06704700000006</v>
       </c>
       <c r="AD452" s="4">
-        <v>307.60687300000001</v>
+        <v>304.76144499999998</v>
       </c>
       <c r="AE452" s="4">
-        <v>307.100708</v>
+        <v>304.42492599999997</v>
       </c>
       <c r="AF452" s="4">
-        <v>306.58514400000001</v>
+        <v>303.74380500000001</v>
       </c>
       <c r="AG452" s="4">
-        <v>306.00729400000006</v>
+        <v>303.16153000000003</v>
       </c>
       <c r="AH452" s="4">
-        <v>305.49517800000001</v>
+        <v>302.687073</v>
       </c>
       <c r="AI452" s="6">
-        <v>304.97640999999999</v>
+        <v>302.30136100000004</v>
       </c>
       <c r="AJ452" s="6">
-        <v>304.43133499999999</v>
+        <v>301.89297500000004</v>
       </c>
     </row>
     <row r="453" spans="1:36" x14ac:dyDescent="0.25">
@@ -50348,103 +50350,103 @@
         <v>290</v>
       </c>
       <c r="D453" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E453" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F453" s="6">
-        <v>318.5647580000001</v>
-      </c>
-      <c r="G453" s="6">
-        <v>318.45916799999998</v>
+      <c r="F453" s="4">
+        <v>563.50128199999995</v>
+      </c>
+      <c r="G453" s="4">
+        <v>595.85424799999998</v>
       </c>
       <c r="H453" s="4">
-        <v>335.40069600000004</v>
+        <v>581.48321499999997</v>
       </c>
       <c r="I453" s="4">
-        <v>336.33514400000001</v>
+        <v>536.26489300000003</v>
       </c>
       <c r="J453" s="4">
-        <v>317.25219800000002</v>
+        <v>539.71069299999999</v>
       </c>
       <c r="K453" s="4">
-        <v>318.18652300000002</v>
+        <v>501.16802999999999</v>
       </c>
       <c r="L453" s="4">
-        <v>318.99056999999993</v>
+        <v>448.31375100000002</v>
       </c>
       <c r="M453" s="4">
-        <v>319.30255199999999</v>
+        <v>395.10986300000002</v>
       </c>
       <c r="N453" s="4">
-        <v>319.21679699999999</v>
+        <v>352.44085699999999</v>
       </c>
       <c r="O453" s="4">
-        <v>318.45864899999992</v>
+        <v>320.11886600000003</v>
       </c>
       <c r="P453" s="4">
-        <v>317.31777900000003</v>
+        <v>297.69491599999998</v>
       </c>
       <c r="Q453" s="4">
-        <v>315.85275300000001</v>
+        <v>289.48208599999998</v>
       </c>
       <c r="R453" s="4">
-        <v>314.30178899999999</v>
+        <v>287.25302099999999</v>
       </c>
       <c r="S453" s="4">
-        <v>313.27889999999996</v>
+        <v>284.807526</v>
       </c>
       <c r="T453" s="4">
-        <v>312.078552</v>
+        <v>277.59039300000001</v>
       </c>
       <c r="U453" s="4">
-        <v>310.94494599999996</v>
+        <v>273.98107900000002</v>
       </c>
       <c r="V453" s="4">
-        <v>309.99002100000001</v>
+        <v>271.468414</v>
       </c>
       <c r="W453" s="4">
-        <v>309.14474499999994</v>
+        <v>272.53750600000001</v>
       </c>
       <c r="X453" s="4">
-        <v>308.24099699999999</v>
+        <v>270.13998400000003</v>
       </c>
       <c r="Y453" s="4">
-        <v>307.37387100000001</v>
+        <v>270.67672700000003</v>
       </c>
       <c r="Z453" s="4">
-        <v>306.68322799999999</v>
+        <v>269.76269500000001</v>
       </c>
       <c r="AA453" s="4">
-        <v>306.04129</v>
+        <v>271.63558999999998</v>
       </c>
       <c r="AB453" s="4">
-        <v>305.49874900000003</v>
+        <v>272.64132699999999</v>
       </c>
       <c r="AC453" s="4">
-        <v>305.06704700000006</v>
+        <v>271.10665899999998</v>
       </c>
       <c r="AD453" s="4">
-        <v>304.76144499999998</v>
+        <v>270.55197099999998</v>
       </c>
       <c r="AE453" s="4">
-        <v>304.42492599999997</v>
+        <v>269.86218300000002</v>
       </c>
       <c r="AF453" s="4">
-        <v>303.74380500000001</v>
+        <v>266.44162</v>
       </c>
       <c r="AG453" s="4">
-        <v>303.16153000000003</v>
+        <v>266.05154399999998</v>
       </c>
       <c r="AH453" s="4">
-        <v>302.687073</v>
-      </c>
-      <c r="AI453" s="6">
-        <v>302.30136100000004</v>
-      </c>
-      <c r="AJ453" s="6">
-        <v>301.89297500000004</v>
+        <v>263.20684799999998</v>
+      </c>
+      <c r="AI453" s="4">
+        <v>261.60916099999997</v>
+      </c>
+      <c r="AJ453" s="4">
+        <v>258.58895899999999</v>
       </c>
     </row>
     <row r="454" spans="1:36" x14ac:dyDescent="0.25">
@@ -50458,99 +50460,99 @@
         <v>290</v>
       </c>
       <c r="D454" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E454" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F454" s="9"/>
-      <c r="G454" s="9"/>
-      <c r="H454" s="9">
-        <v>408.69961499999999</v>
-      </c>
-      <c r="I454" s="9">
-        <v>378.51443499999999</v>
-      </c>
-      <c r="J454" s="9">
-        <v>369.45834400000001</v>
-      </c>
-      <c r="K454" s="9">
-        <v>352.26223800000002</v>
-      </c>
-      <c r="L454" s="9">
-        <v>342.135223</v>
-      </c>
-      <c r="M454" s="9">
-        <v>333.90347300000002</v>
-      </c>
-      <c r="N454" s="9">
-        <v>326.98864700000001</v>
-      </c>
-      <c r="O454" s="9">
-        <v>323.54367100000002</v>
-      </c>
-      <c r="P454" s="9">
-        <v>316.04162600000001</v>
-      </c>
-      <c r="Q454" s="9">
-        <v>306.38720699999999</v>
-      </c>
-      <c r="R454" s="9">
-        <v>301.086792</v>
-      </c>
-      <c r="S454" s="9">
-        <v>300.34271200000001</v>
-      </c>
-      <c r="T454" s="9">
-        <v>298.59075899999999</v>
-      </c>
-      <c r="U454" s="9">
-        <v>295.81835899999999</v>
-      </c>
-      <c r="V454" s="9">
-        <v>291.69287100000003</v>
-      </c>
-      <c r="W454" s="9">
-        <v>291.346161</v>
-      </c>
-      <c r="X454" s="9">
-        <v>285.56643700000001</v>
-      </c>
-      <c r="Y454" s="9">
-        <v>282.63244600000002</v>
-      </c>
-      <c r="Z454" s="9">
-        <v>276.46521000000001</v>
-      </c>
-      <c r="AA454" s="9">
-        <v>276.95697000000001</v>
-      </c>
-      <c r="AB454" s="9">
-        <v>277.22152699999998</v>
-      </c>
-      <c r="AC454" s="9">
-        <v>277.70620700000001</v>
-      </c>
-      <c r="AD454" s="9">
-        <v>275.88031000000001</v>
-      </c>
-      <c r="AE454" s="9">
-        <v>274.47512799999998</v>
-      </c>
-      <c r="AF454" s="9">
-        <v>273.90722699999998</v>
-      </c>
-      <c r="AG454" s="9">
-        <v>271.61782799999997</v>
-      </c>
-      <c r="AH454" s="9">
-        <v>268.12524400000001</v>
-      </c>
-      <c r="AI454" s="9">
-        <v>267.395081</v>
-      </c>
-      <c r="AJ454" s="9">
-        <v>267.15277099999997</v>
+      <c r="F454" s="4"/>
+      <c r="G454" s="4"/>
+      <c r="H454" s="4">
+        <v>581.96026600000005</v>
+      </c>
+      <c r="I454" s="4">
+        <v>539.29388400000005</v>
+      </c>
+      <c r="J454" s="4">
+        <v>541.043274</v>
+      </c>
+      <c r="K454" s="4">
+        <v>515.26593000000003</v>
+      </c>
+      <c r="L454" s="4">
+        <v>496.34799199999998</v>
+      </c>
+      <c r="M454" s="4">
+        <v>483.234283</v>
+      </c>
+      <c r="N454" s="4">
+        <v>475.16720600000002</v>
+      </c>
+      <c r="O454" s="4">
+        <v>469.99478099999999</v>
+      </c>
+      <c r="P454" s="4">
+        <v>458.732147</v>
+      </c>
+      <c r="Q454" s="4">
+        <v>445.34072900000001</v>
+      </c>
+      <c r="R454" s="4">
+        <v>434.36523399999999</v>
+      </c>
+      <c r="S454" s="4">
+        <v>431.81912199999999</v>
+      </c>
+      <c r="T454" s="4">
+        <v>429.19961499999999</v>
+      </c>
+      <c r="U454" s="4">
+        <v>424.26727299999999</v>
+      </c>
+      <c r="V454" s="4">
+        <v>418.978455</v>
+      </c>
+      <c r="W454" s="4">
+        <v>418.98764</v>
+      </c>
+      <c r="X454" s="4">
+        <v>412.75479100000001</v>
+      </c>
+      <c r="Y454" s="4">
+        <v>410.375336</v>
+      </c>
+      <c r="Z454" s="4">
+        <v>402.32424900000001</v>
+      </c>
+      <c r="AA454" s="4">
+        <v>401.96029700000003</v>
+      </c>
+      <c r="AB454" s="4">
+        <v>404.29568499999999</v>
+      </c>
+      <c r="AC454" s="4">
+        <v>405.15322900000001</v>
+      </c>
+      <c r="AD454" s="4">
+        <v>405.20507800000001</v>
+      </c>
+      <c r="AE454" s="4">
+        <v>404.74267600000002</v>
+      </c>
+      <c r="AF454" s="4">
+        <v>405.96343999999999</v>
+      </c>
+      <c r="AG454" s="4">
+        <v>404.37570199999999</v>
+      </c>
+      <c r="AH454" s="4">
+        <v>398.85626200000002</v>
+      </c>
+      <c r="AI454" s="4">
+        <v>400.305206</v>
+      </c>
+      <c r="AJ454" s="4">
+        <v>401.47491500000001</v>
       </c>
     </row>
     <row r="455" spans="1:36" x14ac:dyDescent="0.25">
@@ -50558,109 +50560,105 @@
         <v>292</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D455" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E455" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F455" s="9">
-        <v>392.51171900000003</v>
-      </c>
-      <c r="G455" s="9">
-        <v>423.77496300000001</v>
-      </c>
+      <c r="F455" s="9"/>
+      <c r="G455" s="9"/>
       <c r="H455" s="9">
-        <v>409.07107500000001</v>
+        <v>766.81842112473646</v>
       </c>
       <c r="I455" s="9">
-        <v>384.10263099999997</v>
+        <v>771.53503524153496</v>
       </c>
       <c r="J455" s="9">
-        <v>377.41247600000003</v>
+        <v>757.66857870625313</v>
       </c>
       <c r="K455" s="9">
-        <v>352.642517</v>
+        <v>764.1548486606448</v>
       </c>
       <c r="L455" s="9">
-        <v>318.07849099999999</v>
+        <v>777.08782919422697</v>
       </c>
       <c r="M455" s="9">
-        <v>281.428314</v>
+        <v>783.59504313562707</v>
       </c>
       <c r="N455" s="9">
-        <v>248.468536</v>
+        <v>789.8612272883347</v>
       </c>
       <c r="O455" s="9">
-        <v>222.76303100000001</v>
+        <v>792.15441090260913</v>
       </c>
       <c r="P455" s="9">
-        <v>203.07749899999999</v>
+        <v>794.12590192779828</v>
       </c>
       <c r="Q455" s="9">
-        <v>196.980682</v>
+        <v>797.27262683966876</v>
       </c>
       <c r="R455" s="9">
-        <v>194.70811499999999</v>
+        <v>804.08049339463344</v>
       </c>
       <c r="S455" s="9">
-        <v>194.24972500000001</v>
+        <v>808.45974505682398</v>
       </c>
       <c r="T455" s="9">
-        <v>189.522186</v>
+        <v>813.39275761194904</v>
       </c>
       <c r="U455" s="9">
-        <v>187.52157600000001</v>
+        <v>819.04100449298346</v>
       </c>
       <c r="V455" s="9">
-        <v>186.17460600000001</v>
+        <v>822.39621381498455</v>
       </c>
       <c r="W455" s="9">
-        <v>184.55595400000001</v>
+        <v>826.45740601928242</v>
       </c>
       <c r="X455" s="9">
-        <v>181.43579099999999</v>
+        <v>830.17804513978353</v>
       </c>
       <c r="Y455" s="9">
-        <v>181.865082</v>
+        <v>832.01558884638575</v>
       </c>
       <c r="Z455" s="9">
-        <v>180.789017</v>
+        <v>838.35796164624765</v>
       </c>
       <c r="AA455" s="9">
-        <v>182.396423</v>
+        <v>845.92818561172589</v>
       </c>
       <c r="AB455" s="9">
-        <v>184.04267899999999</v>
+        <v>851.56375012552212</v>
       </c>
       <c r="AC455" s="9">
-        <v>183.257339</v>
+        <v>856.49621743333171</v>
       </c>
       <c r="AD455" s="9">
-        <v>183.05543499999999</v>
+        <v>859.41403630253853</v>
       </c>
       <c r="AE455" s="9">
-        <v>181.77307099999999</v>
+        <v>860.84316911478049</v>
       </c>
       <c r="AF455" s="9">
-        <v>178.960464</v>
+        <v>862.26230817578062</v>
       </c>
       <c r="AG455" s="9">
-        <v>178.086029</v>
+        <v>864.77730997097547</v>
       </c>
       <c r="AH455" s="9">
-        <v>175.696518</v>
+        <v>870.45542341590613</v>
       </c>
       <c r="AI455" s="9">
-        <v>173.967545</v>
+        <v>875.18002801541479</v>
       </c>
       <c r="AJ455" s="9">
-        <v>171.22403</v>
+        <v>878.93954276268255</v>
       </c>
     </row>
     <row r="456" spans="1:36" x14ac:dyDescent="0.25">
@@ -51100,109 +51098,105 @@
         <v>292</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D460" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E460" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F460" s="4">
-        <v>489.03109699999999</v>
-      </c>
-      <c r="G460" s="4">
-        <v>527.30468800000006</v>
-      </c>
-      <c r="H460" s="4">
-        <v>510.97058099999998</v>
-      </c>
-      <c r="I460" s="4">
-        <v>470.55499300000002</v>
-      </c>
-      <c r="J460" s="4">
-        <v>470.81536899999998</v>
-      </c>
-      <c r="K460" s="4">
-        <v>433.585846</v>
-      </c>
-      <c r="L460" s="4">
-        <v>386.15048200000001</v>
-      </c>
-      <c r="M460" s="4">
-        <v>338.70053100000001</v>
-      </c>
-      <c r="N460" s="4">
-        <v>302.12548800000002</v>
-      </c>
-      <c r="O460" s="4">
-        <v>274.33972199999999</v>
-      </c>
-      <c r="P460" s="4">
-        <v>255.35998499999999</v>
-      </c>
-      <c r="Q460" s="4">
-        <v>248.856934</v>
-      </c>
-      <c r="R460" s="4">
-        <v>247.34567300000001</v>
-      </c>
-      <c r="S460" s="4">
-        <v>244.858383</v>
-      </c>
-      <c r="T460" s="4">
-        <v>238.41213999999999</v>
-      </c>
-      <c r="U460" s="4">
-        <v>234.65516700000001</v>
-      </c>
-      <c r="V460" s="4">
-        <v>231.635727</v>
-      </c>
-      <c r="W460" s="4">
-        <v>231.51623499999999</v>
-      </c>
-      <c r="X460" s="4">
-        <v>228.125946</v>
-      </c>
-      <c r="Y460" s="4">
-        <v>227.48843400000001</v>
-      </c>
-      <c r="Z460" s="4">
-        <v>225.78959699999999</v>
-      </c>
-      <c r="AA460" s="4">
-        <v>226.82560699999999</v>
-      </c>
-      <c r="AB460" s="4">
-        <v>226.79577599999999</v>
-      </c>
-      <c r="AC460" s="4">
-        <v>224.72546399999999</v>
-      </c>
-      <c r="AD460" s="4">
-        <v>223.54141200000001</v>
-      </c>
-      <c r="AE460" s="4">
-        <v>222.11198400000001</v>
-      </c>
-      <c r="AF460" s="4">
-        <v>218.48440600000001</v>
-      </c>
-      <c r="AG460" s="4">
-        <v>217.64146400000001</v>
-      </c>
-      <c r="AH460" s="4">
-        <v>214.525238</v>
-      </c>
-      <c r="AI460" s="4">
-        <v>213.14537000000001</v>
-      </c>
-      <c r="AJ460" s="4">
-        <v>210.43454</v>
+      <c r="F460" s="9"/>
+      <c r="G460" s="9"/>
+      <c r="H460" s="9">
+        <v>408.69961499999999</v>
+      </c>
+      <c r="I460" s="9">
+        <v>378.51443499999999</v>
+      </c>
+      <c r="J460" s="9">
+        <v>369.45834400000001</v>
+      </c>
+      <c r="K460" s="9">
+        <v>352.26223800000002</v>
+      </c>
+      <c r="L460" s="9">
+        <v>342.135223</v>
+      </c>
+      <c r="M460" s="9">
+        <v>333.90347300000002</v>
+      </c>
+      <c r="N460" s="9">
+        <v>326.98864700000001</v>
+      </c>
+      <c r="O460" s="9">
+        <v>323.54367100000002</v>
+      </c>
+      <c r="P460" s="9">
+        <v>316.04162600000001</v>
+      </c>
+      <c r="Q460" s="9">
+        <v>306.38720699999999</v>
+      </c>
+      <c r="R460" s="9">
+        <v>301.086792</v>
+      </c>
+      <c r="S460" s="9">
+        <v>300.34271200000001</v>
+      </c>
+      <c r="T460" s="9">
+        <v>298.59075899999999</v>
+      </c>
+      <c r="U460" s="9">
+        <v>295.81835899999999</v>
+      </c>
+      <c r="V460" s="9">
+        <v>291.69287100000003</v>
+      </c>
+      <c r="W460" s="9">
+        <v>291.346161</v>
+      </c>
+      <c r="X460" s="9">
+        <v>285.56643700000001</v>
+      </c>
+      <c r="Y460" s="9">
+        <v>282.63244600000002</v>
+      </c>
+      <c r="Z460" s="9">
+        <v>276.46521000000001</v>
+      </c>
+      <c r="AA460" s="9">
+        <v>276.95697000000001</v>
+      </c>
+      <c r="AB460" s="9">
+        <v>277.22152699999998</v>
+      </c>
+      <c r="AC460" s="9">
+        <v>277.70620700000001</v>
+      </c>
+      <c r="AD460" s="9">
+        <v>275.88031000000001</v>
+      </c>
+      <c r="AE460" s="9">
+        <v>274.47512799999998</v>
+      </c>
+      <c r="AF460" s="9">
+        <v>273.90722699999998</v>
+      </c>
+      <c r="AG460" s="9">
+        <v>271.61782799999997</v>
+      </c>
+      <c r="AH460" s="9">
+        <v>268.12524400000001</v>
+      </c>
+      <c r="AI460" s="9">
+        <v>267.395081</v>
+      </c>
+      <c r="AJ460" s="9">
+        <v>267.15277099999997</v>
       </c>
     </row>
     <row r="461" spans="1:36" x14ac:dyDescent="0.25">
@@ -51216,99 +51210,99 @@
         <v>290</v>
       </c>
       <c r="D461" s="5" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E461" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F461" s="4"/>
-      <c r="G461" s="4"/>
-      <c r="H461" s="4">
-        <v>511.18383799999998</v>
-      </c>
-      <c r="I461" s="4">
-        <v>473.19409200000001</v>
-      </c>
-      <c r="J461" s="4">
-        <v>469.77255200000002</v>
-      </c>
-      <c r="K461" s="4">
-        <v>442.11105300000003</v>
-      </c>
-      <c r="L461" s="4">
-        <v>422.40741000000003</v>
-      </c>
-      <c r="M461" s="4">
-        <v>407.801849</v>
-      </c>
-      <c r="N461" s="4">
-        <v>400.84066799999999</v>
-      </c>
-      <c r="O461" s="4">
-        <v>395.84851099999997</v>
-      </c>
-      <c r="P461" s="4">
-        <v>387.17300399999999</v>
-      </c>
-      <c r="Q461" s="4">
-        <v>376.4599</v>
-      </c>
-      <c r="R461" s="4">
-        <v>368.02346799999998</v>
-      </c>
-      <c r="S461" s="4">
-        <v>365.600616</v>
-      </c>
-      <c r="T461" s="4">
-        <v>363.16223100000002</v>
-      </c>
-      <c r="U461" s="4">
-        <v>358.192566</v>
-      </c>
-      <c r="V461" s="4">
-        <v>352.484375</v>
-      </c>
-      <c r="W461" s="4">
-        <v>351.248535</v>
-      </c>
-      <c r="X461" s="4">
-        <v>344.16555799999998</v>
-      </c>
-      <c r="Y461" s="4">
-        <v>340.65399200000002</v>
-      </c>
-      <c r="Z461" s="4">
-        <v>332.93319700000001</v>
-      </c>
-      <c r="AA461" s="4">
-        <v>331.43743899999998</v>
-      </c>
-      <c r="AB461" s="4">
-        <v>332.312408</v>
-      </c>
-      <c r="AC461" s="4">
-        <v>331.97763099999997</v>
-      </c>
-      <c r="AD461" s="4">
-        <v>331.12515300000001</v>
-      </c>
-      <c r="AE461" s="4">
-        <v>329.61990400000002</v>
-      </c>
-      <c r="AF461" s="4">
-        <v>329.358429</v>
-      </c>
-      <c r="AG461" s="4">
-        <v>327.36651599999999</v>
-      </c>
-      <c r="AH461" s="4">
-        <v>322.30651899999998</v>
-      </c>
-      <c r="AI461" s="4">
-        <v>322.69863900000001</v>
-      </c>
-      <c r="AJ461" s="4">
-        <v>323.143372</v>
+      <c r="F461" s="6"/>
+      <c r="G461" s="6"/>
+      <c r="H461" s="6">
+        <v>216.96841387526359</v>
+      </c>
+      <c r="I461" s="6">
+        <v>223.68221875846498</v>
+      </c>
+      <c r="J461" s="6">
+        <v>215.61746229374688</v>
+      </c>
+      <c r="K461" s="6">
+        <v>214.5110143393552</v>
+      </c>
+      <c r="L461" s="6">
+        <v>215.97494580577319</v>
+      </c>
+      <c r="M461" s="6">
+        <v>216.79542886437278</v>
+      </c>
+      <c r="N461" s="6">
+        <v>218.74949071166532</v>
+      </c>
+      <c r="O461" s="6">
+        <v>220.29044309739083</v>
+      </c>
+      <c r="P461" s="6">
+        <v>221.6708510722018</v>
+      </c>
+      <c r="Q461" s="6">
+        <v>220.6958791603312</v>
+      </c>
+      <c r="R461" s="6">
+        <v>220.65168460536651</v>
+      </c>
+      <c r="S461" s="6">
+        <v>221.38113694317602</v>
+      </c>
+      <c r="T461" s="6">
+        <v>223.61926638805105</v>
+      </c>
+      <c r="U461" s="6">
+        <v>223.59498250701662</v>
+      </c>
+      <c r="V461" s="6">
+        <v>225.18581718501557</v>
+      </c>
+      <c r="W461" s="6">
+        <v>226.03847398071775</v>
+      </c>
+      <c r="X461" s="6">
+        <v>225.10927786021645</v>
+      </c>
+      <c r="Y461" s="6">
+        <v>223.38138415361414</v>
+      </c>
+      <c r="Z461" s="6">
+        <v>222.93183335375227</v>
+      </c>
+      <c r="AA461" s="6">
+        <v>223.3221193882741</v>
+      </c>
+      <c r="AB461" s="6">
+        <v>223.62268187447791</v>
+      </c>
+      <c r="AC461" s="6">
+        <v>223.90756056666837</v>
+      </c>
+      <c r="AD461" s="6">
+        <v>223.34408169746143</v>
+      </c>
+      <c r="AE461" s="6">
+        <v>224.14532588521953</v>
+      </c>
+      <c r="AF461" s="6">
+        <v>225.16249582421943</v>
+      </c>
+      <c r="AG461" s="6">
+        <v>225.91064802902457</v>
+      </c>
+      <c r="AH461" s="6">
+        <v>229.35683258409375</v>
+      </c>
+      <c r="AI461" s="6">
+        <v>230.34212698458538</v>
+      </c>
+      <c r="AJ461" s="6">
+        <v>229.88034223731728</v>
       </c>
     </row>
     <row r="462" spans="1:36" x14ac:dyDescent="0.25">
@@ -51316,109 +51310,109 @@
         <v>292</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D462" s="5" t="s">
-        <v>58</v>
+        <v>299</v>
       </c>
       <c r="E462" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F462" s="4">
-        <v>563.50128199999995</v>
-      </c>
-      <c r="G462" s="4">
-        <v>595.85424799999998</v>
-      </c>
-      <c r="H462" s="4">
-        <v>581.48321499999997</v>
-      </c>
-      <c r="I462" s="4">
-        <v>536.26489300000003</v>
-      </c>
-      <c r="J462" s="4">
-        <v>539.71069299999999</v>
-      </c>
-      <c r="K462" s="4">
-        <v>501.16802999999999</v>
-      </c>
-      <c r="L462" s="4">
-        <v>448.31375100000002</v>
-      </c>
-      <c r="M462" s="4">
-        <v>395.10986300000002</v>
-      </c>
-      <c r="N462" s="4">
-        <v>352.44085699999999</v>
-      </c>
-      <c r="O462" s="4">
-        <v>320.11886600000003</v>
-      </c>
-      <c r="P462" s="4">
-        <v>297.69491599999998</v>
-      </c>
-      <c r="Q462" s="4">
-        <v>289.48208599999998</v>
-      </c>
-      <c r="R462" s="4">
-        <v>287.25302099999999</v>
-      </c>
-      <c r="S462" s="4">
-        <v>284.807526</v>
-      </c>
-      <c r="T462" s="4">
-        <v>277.59039300000001</v>
-      </c>
-      <c r="U462" s="4">
-        <v>273.98107900000002</v>
-      </c>
-      <c r="V462" s="4">
-        <v>271.468414</v>
-      </c>
-      <c r="W462" s="4">
-        <v>272.53750600000001</v>
-      </c>
-      <c r="X462" s="4">
-        <v>270.13998400000003</v>
-      </c>
-      <c r="Y462" s="4">
-        <v>270.67672700000003</v>
-      </c>
-      <c r="Z462" s="4">
-        <v>269.76269500000001</v>
-      </c>
-      <c r="AA462" s="4">
-        <v>271.63558999999998</v>
-      </c>
-      <c r="AB462" s="4">
-        <v>272.64132699999999</v>
-      </c>
-      <c r="AC462" s="4">
-        <v>271.10665899999998</v>
-      </c>
-      <c r="AD462" s="4">
-        <v>270.55197099999998</v>
-      </c>
-      <c r="AE462" s="4">
-        <v>269.86218300000002</v>
-      </c>
-      <c r="AF462" s="4">
-        <v>266.44162</v>
-      </c>
-      <c r="AG462" s="4">
-        <v>266.05154399999998</v>
-      </c>
-      <c r="AH462" s="4">
-        <v>263.20684799999998</v>
-      </c>
-      <c r="AI462" s="4">
-        <v>261.60916099999997</v>
-      </c>
-      <c r="AJ462" s="4">
-        <v>258.58895899999999</v>
+      <c r="F462" s="1">
+        <v>0</v>
+      </c>
+      <c r="G462" s="1">
+        <v>0</v>
+      </c>
+      <c r="H462" s="1">
+        <v>983.78683500000011</v>
+      </c>
+      <c r="I462" s="1">
+        <v>995.21725399999991</v>
+      </c>
+      <c r="J462" s="1">
+        <v>973.28604100000007</v>
+      </c>
+      <c r="K462" s="1">
+        <v>978.66586299999994</v>
+      </c>
+      <c r="L462" s="1">
+        <v>993.0627750000001</v>
+      </c>
+      <c r="M462" s="1">
+        <v>1000.3904719999998</v>
+      </c>
+      <c r="N462" s="1">
+        <v>1008.610718</v>
+      </c>
+      <c r="O462" s="1">
+        <v>1012.444854</v>
+      </c>
+      <c r="P462" s="1">
+        <v>1015.7967530000001</v>
+      </c>
+      <c r="Q462" s="1">
+        <v>1017.9685059999999</v>
+      </c>
+      <c r="R462" s="1">
+        <v>1024.732178</v>
+      </c>
+      <c r="S462" s="1">
+        <v>1029.840882</v>
+      </c>
+      <c r="T462" s="1">
+        <v>1037.0120240000001</v>
+      </c>
+      <c r="U462" s="1">
+        <v>1042.6359870000001</v>
+      </c>
+      <c r="V462" s="1">
+        <v>1047.5820310000001</v>
+      </c>
+      <c r="W462" s="1">
+        <v>1052.4958800000002</v>
+      </c>
+      <c r="X462" s="1">
+        <v>1055.287323</v>
+      </c>
+      <c r="Y462" s="1">
+        <v>1055.3969729999999</v>
+      </c>
+      <c r="Z462" s="1">
+        <v>1061.2897949999999</v>
+      </c>
+      <c r="AA462" s="1">
+        <v>1069.250305</v>
+      </c>
+      <c r="AB462" s="1">
+        <v>1075.186432</v>
+      </c>
+      <c r="AC462" s="1">
+        <v>1080.4037780000001</v>
+      </c>
+      <c r="AD462" s="1">
+        <v>1082.758118</v>
+      </c>
+      <c r="AE462" s="1">
+        <v>1084.9884950000001</v>
+      </c>
+      <c r="AF462" s="1">
+        <v>1087.424804</v>
+      </c>
+      <c r="AG462" s="1">
+        <v>1090.687958</v>
+      </c>
+      <c r="AH462" s="1">
+        <v>1099.8122559999999</v>
+      </c>
+      <c r="AI462" s="1">
+        <v>1105.5221550000001</v>
+      </c>
+      <c r="AJ462" s="1">
+        <v>1108.8198849999999</v>
       </c>
     </row>
     <row r="463" spans="1:36" x14ac:dyDescent="0.25">
@@ -51426,105 +51420,109 @@
         <v>292</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D463" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E463" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F463" s="4"/>
-      <c r="G463" s="4"/>
+      <c r="F463" s="4">
+        <v>1629.3745859999999</v>
+      </c>
+      <c r="G463" s="4">
+        <v>1800.808503</v>
+      </c>
       <c r="H463" s="4">
-        <v>581.96026600000005</v>
+        <v>1773.249133</v>
       </c>
       <c r="I463" s="4">
-        <v>539.29388400000005</v>
+        <v>1760.778898</v>
       </c>
       <c r="J463" s="4">
-        <v>541.043274</v>
+        <v>1746.0585820000001</v>
       </c>
       <c r="K463" s="4">
-        <v>515.26593000000003</v>
+        <v>1723.9023999999999</v>
       </c>
       <c r="L463" s="4">
-        <v>496.34799199999998</v>
+        <v>1708.5114470000001</v>
       </c>
       <c r="M463" s="4">
-        <v>483.234283</v>
+        <v>1692.8804599999999</v>
       </c>
       <c r="N463" s="4">
-        <v>475.16720600000002</v>
+        <v>1684.563191</v>
       </c>
       <c r="O463" s="4">
-        <v>469.99478099999999</v>
+        <v>1666.0220469999999</v>
       </c>
       <c r="P463" s="4">
-        <v>458.732147</v>
+        <v>1644.875853</v>
       </c>
       <c r="Q463" s="4">
-        <v>445.34072900000001</v>
+        <v>1626.019393</v>
       </c>
       <c r="R463" s="4">
-        <v>434.36523399999999</v>
+        <v>1610.263541</v>
       </c>
       <c r="S463" s="4">
-        <v>431.81912199999999</v>
+        <v>1597.276214</v>
       </c>
       <c r="T463" s="4">
-        <v>429.19961499999999</v>
+        <v>1585.744604</v>
       </c>
       <c r="U463" s="4">
-        <v>424.26727299999999</v>
+        <v>1574.929811</v>
       </c>
       <c r="V463" s="4">
-        <v>418.978455</v>
+        <v>1564.5117010000001</v>
       </c>
       <c r="W463" s="4">
-        <v>418.98764</v>
+        <v>1557.1861040000001</v>
       </c>
       <c r="X463" s="4">
-        <v>412.75479100000001</v>
+        <v>1552.092795</v>
       </c>
       <c r="Y463" s="4">
-        <v>410.375336</v>
+        <v>1547.5301399999998</v>
       </c>
       <c r="Z463" s="4">
-        <v>402.32424900000001</v>
+        <v>1546.4697229999999</v>
       </c>
       <c r="AA463" s="4">
-        <v>401.96029700000003</v>
+        <v>1546.6184880000001</v>
       </c>
       <c r="AB463" s="4">
-        <v>404.29568499999999</v>
+        <v>1548.6096709999999</v>
       </c>
       <c r="AC463" s="4">
-        <v>405.15322900000001</v>
+        <v>1551.6216049999998</v>
       </c>
       <c r="AD463" s="4">
-        <v>405.20507800000001</v>
+        <v>1556.1168429999998</v>
       </c>
       <c r="AE463" s="4">
-        <v>404.74267600000002</v>
+        <v>1561.233694</v>
       </c>
       <c r="AF463" s="4">
-        <v>405.96343999999999</v>
+        <v>1566.873165</v>
       </c>
       <c r="AG463" s="4">
-        <v>404.37570199999999</v>
+        <v>1574.600518</v>
       </c>
       <c r="AH463" s="4">
-        <v>398.85626200000002</v>
+        <v>1581.0606540000001</v>
       </c>
       <c r="AI463" s="4">
-        <v>400.305206</v>
+        <v>1586.0842070000001</v>
       </c>
       <c r="AJ463" s="4">
-        <v>401.47491500000001</v>
+        <v>1601.1079639999998</v>
       </c>
     </row>
     <row r="464" spans="1:36" x14ac:dyDescent="0.25">
@@ -51538,7 +51536,7 @@
         <v>290</v>
       </c>
       <c r="D464" s="5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E464" s="5" t="s">
         <v>1</v>
@@ -51546,91 +51544,91 @@
       <c r="F464" s="4"/>
       <c r="G464" s="4"/>
       <c r="H464" s="4">
-        <v>589.39996299999984</v>
+        <v>1773.502485</v>
       </c>
       <c r="I464" s="4">
-        <v>590.82324199999994</v>
+        <v>1768.325803</v>
       </c>
       <c r="J464" s="4">
-        <v>566.90585399999998</v>
+        <v>1756.6066820000001</v>
       </c>
       <c r="K464" s="4">
-        <v>570.79183999999987</v>
+        <v>1733.378839</v>
       </c>
       <c r="L464" s="4">
-        <v>573.58908099999996</v>
+        <v>1721.679431</v>
       </c>
       <c r="M464" s="4">
-        <v>574.36200099999996</v>
+        <v>1709.6973699999999</v>
       </c>
       <c r="N464" s="4">
-        <v>575.56396399999994</v>
+        <v>1694.9164639999999</v>
       </c>
       <c r="O464" s="4">
-        <v>575.51193200000012</v>
+        <v>1677.810256</v>
       </c>
       <c r="P464" s="4">
-        <v>574.85650699999997</v>
+        <v>1656.898475</v>
       </c>
       <c r="Q464" s="4">
-        <v>573.93862899999999</v>
+        <v>1637.948629</v>
       </c>
       <c r="R464" s="4">
-        <v>573.25796500000001</v>
+        <v>1622.121658</v>
       </c>
       <c r="S464" s="4">
-        <v>572.36816500000009</v>
+        <v>1610.2118210000001</v>
       </c>
       <c r="T464" s="4">
-        <v>571.45718499999998</v>
+        <v>1601.012463</v>
       </c>
       <c r="U464" s="4">
-        <v>570.57684300000005</v>
+        <v>1593.1986010000001</v>
       </c>
       <c r="V464" s="4">
-        <v>569.71881099999996</v>
+        <v>1584.674585</v>
       </c>
       <c r="W464" s="4">
-        <v>568.51138300000002</v>
+        <v>1578.853098</v>
       </c>
       <c r="X464" s="4">
-        <v>566.69976800000006</v>
+        <v>1574.7742310000001</v>
       </c>
       <c r="Y464" s="4">
-        <v>564.66366500000004</v>
+        <v>1570.5150509999999</v>
       </c>
       <c r="Z464" s="4">
-        <v>563.33984400000008</v>
+        <v>1570.2851660000001</v>
       </c>
       <c r="AA464" s="4">
-        <v>562.47976600000004</v>
+        <v>1572.191898</v>
       </c>
       <c r="AB464" s="4">
-        <v>561.63855000000012</v>
+        <v>1574.312103</v>
       </c>
       <c r="AC464" s="4">
-        <v>560.75567600000011</v>
+        <v>1576.0878479999999</v>
       </c>
       <c r="AD464" s="4">
-        <v>560.06594900000005</v>
+        <v>1578.176708</v>
       </c>
       <c r="AE464" s="4">
-        <v>559.38327000000004</v>
+        <v>1580.8269339999999</v>
       </c>
       <c r="AF464" s="4">
-        <v>558.67892400000005</v>
+        <v>1584.9635470000001</v>
       </c>
       <c r="AG464" s="4">
-        <v>557.82071000000008</v>
+        <v>1590.5867009999999</v>
       </c>
       <c r="AH464" s="4">
-        <v>557.18878100000006</v>
+        <v>1596.7335849999999</v>
       </c>
       <c r="AI464" s="4">
-        <v>556.54791299999988</v>
+        <v>1605.1067850000002</v>
       </c>
       <c r="AJ464" s="4">
-        <v>555.88262899999995</v>
+        <v>1616.164757</v>
       </c>
     </row>
     <row r="465" spans="1:36" x14ac:dyDescent="0.25">
@@ -51638,109 +51636,105 @@
         <v>292</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D465" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E465" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F465" s="4">
-        <v>551.65481600000021</v>
-      </c>
-      <c r="G465" s="4">
-        <v>559.76599099999987</v>
-      </c>
+      <c r="F465" s="4"/>
+      <c r="G465" s="4"/>
       <c r="H465" s="4">
-        <v>589.40985100000012</v>
+        <v>5.4225640000000004</v>
       </c>
       <c r="I465" s="4">
-        <v>590.80078099999992</v>
+        <v>5.9554470000000004</v>
       </c>
       <c r="J465" s="4">
-        <v>564.89239500000008</v>
+        <v>7.0726389999999997</v>
       </c>
       <c r="K465" s="4">
-        <v>568.03591900000004</v>
+        <v>7.7974309999999996</v>
       </c>
       <c r="L465" s="4">
-        <v>570.91369599999996</v>
+        <v>8.8346070000000001</v>
       </c>
       <c r="M465" s="4">
-        <v>572.33621300000004</v>
+        <v>10.154070000000001</v>
       </c>
       <c r="N465" s="4">
-        <v>574.21887199999992</v>
+        <v>11.808878</v>
       </c>
       <c r="O465" s="4">
-        <v>574.62307699999997</v>
+        <v>13.393601</v>
       </c>
       <c r="P465" s="4">
-        <v>574.22732500000006</v>
+        <v>15.213952000000001</v>
       </c>
       <c r="Q465" s="4">
-        <v>573.33709699999997</v>
+        <v>16.510477000000002</v>
       </c>
       <c r="R465" s="4">
-        <v>572.15560900000003</v>
+        <v>17.799973000000001</v>
       </c>
       <c r="S465" s="4">
-        <v>571.18577600000003</v>
+        <v>19.305634999999999</v>
       </c>
       <c r="T465" s="4">
-        <v>569.88885499999992</v>
+        <v>20.860583999999999</v>
       </c>
       <c r="U465" s="4">
-        <v>568.56223999999997</v>
+        <v>22.214850999999999</v>
       </c>
       <c r="V465" s="4">
-        <v>567.46629400000006</v>
+        <v>23.285498</v>
       </c>
       <c r="W465" s="4">
-        <v>566.38711599999988</v>
+        <v>24.714285</v>
       </c>
       <c r="X465" s="4">
-        <v>564.997253</v>
+        <v>25.469176999999998</v>
       </c>
       <c r="Y465" s="4">
-        <v>563.55978400000004</v>
+        <v>26.654748999999999</v>
       </c>
       <c r="Z465" s="4">
-        <v>562.34205599999996</v>
+        <v>27.495718</v>
       </c>
       <c r="AA465" s="4">
-        <v>561.19499199999996</v>
+        <v>28.513667999999999</v>
       </c>
       <c r="AB465" s="4">
-        <v>560.2908030000001</v>
+        <v>29.988678</v>
       </c>
       <c r="AC465" s="4">
-        <v>559.63485700000001</v>
+        <v>31.069133999999998</v>
       </c>
       <c r="AD465" s="4">
-        <v>559.230501</v>
+        <v>32.054248999999999</v>
       </c>
       <c r="AE465" s="4">
-        <v>558.68067899999994</v>
+        <v>32.633881000000002</v>
       </c>
       <c r="AF465" s="4">
-        <v>557.39453100000003</v>
+        <v>33.402907999999996</v>
       </c>
       <c r="AG465" s="4">
-        <v>556.373154</v>
+        <v>34.086517000000001</v>
       </c>
       <c r="AH465" s="4">
-        <v>555.55667100000005</v>
+        <v>34.536189999999998</v>
       </c>
       <c r="AI465" s="4">
-        <v>554.94847100000004</v>
+        <v>35.163722999999997</v>
       </c>
       <c r="AJ465" s="4">
-        <v>554.28576700000008</v>
+        <v>35.959755000000001</v>
       </c>
     </row>
     <row r="466" spans="1:36" x14ac:dyDescent="0.25">
@@ -51748,105 +51742,109 @@
         <v>292</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D466" s="4" t="s">
-        <v>70</v>
+      <c r="D466" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E466" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F466" s="6"/>
-      <c r="G466" s="6"/>
-      <c r="H466" s="6">
-        <v>645.55566399999998</v>
-      </c>
-      <c r="I466" s="6">
-        <v>594.91760299999999</v>
-      </c>
-      <c r="J466" s="6">
-        <v>551.510986</v>
-      </c>
-      <c r="K466" s="6">
-        <v>549.72143600000004</v>
-      </c>
-      <c r="L466" s="6">
-        <v>558.61151099999995</v>
-      </c>
-      <c r="M466" s="6">
-        <v>562.90563999999995</v>
-      </c>
-      <c r="N466" s="6">
-        <v>572.84051499999998</v>
-      </c>
-      <c r="O466" s="6">
-        <v>577.51348900000005</v>
-      </c>
-      <c r="P466" s="6">
-        <v>572.75036599999999</v>
-      </c>
-      <c r="Q466" s="6">
-        <v>550.56756600000006</v>
-      </c>
-      <c r="R466" s="6">
-        <v>531.06536900000003</v>
-      </c>
-      <c r="S466" s="6">
-        <v>529.24316399999998</v>
-      </c>
-      <c r="T466" s="6">
-        <v>534.20050000000003</v>
-      </c>
-      <c r="U466" s="6">
-        <v>532.93933100000004</v>
-      </c>
-      <c r="V466" s="6">
-        <v>521.98931900000002</v>
-      </c>
-      <c r="W466" s="6">
-        <v>524.53924600000005</v>
-      </c>
-      <c r="X466" s="6">
-        <v>539.98345900000004</v>
-      </c>
-      <c r="Y466" s="6">
-        <v>541.178406</v>
-      </c>
-      <c r="Z466" s="6">
-        <v>549.69970699999999</v>
-      </c>
-      <c r="AA466" s="6">
-        <v>556.63305700000001</v>
-      </c>
-      <c r="AB466" s="6">
-        <v>564.91729699999996</v>
-      </c>
-      <c r="AC466" s="6">
-        <v>573.535889</v>
-      </c>
-      <c r="AD466" s="6">
-        <v>581.40557899999999</v>
-      </c>
-      <c r="AE466" s="6">
-        <v>580.66705300000001</v>
-      </c>
-      <c r="AF466" s="6">
-        <v>583.23132299999997</v>
-      </c>
-      <c r="AG466" s="6">
-        <v>585.492615</v>
-      </c>
-      <c r="AH466" s="6">
-        <v>596.65338099999997</v>
-      </c>
-      <c r="AI466" s="6">
-        <v>602.32067900000004</v>
-      </c>
-      <c r="AJ466" s="6">
-        <v>606.26855499999999</v>
+      <c r="F466" s="4">
+        <v>3.3713860000000002</v>
+      </c>
+      <c r="G466" s="4">
+        <v>4.2577809999999996</v>
+      </c>
+      <c r="H466" s="4">
+        <v>5.4946409999999997</v>
+      </c>
+      <c r="I466" s="4">
+        <v>6.071688</v>
+      </c>
+      <c r="J466" s="4">
+        <v>7.3067739999999999</v>
+      </c>
+      <c r="K466" s="4">
+        <v>8.0939379999999996</v>
+      </c>
+      <c r="L466" s="4">
+        <v>8.8469510000000007</v>
+      </c>
+      <c r="M466" s="4">
+        <v>9.5296959999999995</v>
+      </c>
+      <c r="N466" s="4">
+        <v>10.350383000000001</v>
+      </c>
+      <c r="O466" s="4">
+        <v>11.141771</v>
+      </c>
+      <c r="P466" s="4">
+        <v>12.179079</v>
+      </c>
+      <c r="Q466" s="4">
+        <v>13.288589999999999</v>
+      </c>
+      <c r="R466" s="4">
+        <v>14.67225</v>
+      </c>
+      <c r="S466" s="4">
+        <v>15.737824</v>
+      </c>
+      <c r="T466" s="4">
+        <v>16.774927000000002</v>
+      </c>
+      <c r="U466" s="4">
+        <v>17.843260000000001</v>
+      </c>
+      <c r="V466" s="4">
+        <v>18.919573</v>
+      </c>
+      <c r="W466" s="4">
+        <v>20.185355999999999</v>
+      </c>
+      <c r="X466" s="4">
+        <v>21.199929999999998</v>
+      </c>
+      <c r="Y466" s="4">
+        <v>22.230968000000001</v>
+      </c>
+      <c r="Z466" s="4">
+        <v>23.066654</v>
+      </c>
+      <c r="AA466" s="4">
+        <v>24.240765</v>
+      </c>
+      <c r="AB466" s="4">
+        <v>24.884592000000001</v>
+      </c>
+      <c r="AC466" s="4">
+        <v>25.446387999999999</v>
+      </c>
+      <c r="AD466" s="4">
+        <v>25.939798</v>
+      </c>
+      <c r="AE466" s="4">
+        <v>26.211496</v>
+      </c>
+      <c r="AF466" s="4">
+        <v>26.291142000000001</v>
+      </c>
+      <c r="AG466" s="4">
+        <v>26.801704000000001</v>
+      </c>
+      <c r="AH466" s="4">
+        <v>26.809218999999999</v>
+      </c>
+      <c r="AI466" s="4">
+        <v>27.156148999999999</v>
+      </c>
+      <c r="AJ466" s="4">
+        <v>27.377753999999999</v>
       </c>
     </row>
     <row r="467" spans="1:36" x14ac:dyDescent="0.25">
@@ -51859,104 +51857,104 @@
       <c r="C467" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D467" s="4" t="s">
-        <v>70</v>
+      <c r="D467" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="E467" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F467" s="6">
-        <v>634.33337400000005</v>
+        <v>44.643379000000003</v>
       </c>
       <c r="G467" s="6">
-        <v>615.27032499999996</v>
+        <v>46.340682999999999</v>
       </c>
       <c r="H467" s="6">
-        <v>645.55572500000005</v>
+        <v>47.922488999999999</v>
       </c>
       <c r="I467" s="6">
-        <v>594.91760299999999</v>
+        <v>43.419913999999999</v>
       </c>
       <c r="J467" s="6">
-        <v>556.44512899999995</v>
+        <v>40.277442999999998</v>
       </c>
       <c r="K467" s="6">
-        <v>529.76300000000003</v>
+        <v>38.421135</v>
       </c>
       <c r="L467" s="6">
-        <v>506.71398900000003</v>
+        <v>36.843155000000003</v>
       </c>
       <c r="M467" s="6">
-        <v>471.145081</v>
+        <v>34.622700000000002</v>
       </c>
       <c r="N467" s="6">
-        <v>451.25140399999998</v>
+        <v>32.436630000000001</v>
       </c>
       <c r="O467" s="6">
-        <v>433.67559799999998</v>
+        <v>32.326763</v>
       </c>
       <c r="P467" s="6">
-        <v>415.85220299999997</v>
+        <v>32.252972</v>
       </c>
       <c r="Q467" s="6">
-        <v>402.16146900000001</v>
+        <v>32.372456</v>
       </c>
       <c r="R467" s="6">
-        <v>396.17950400000001</v>
+        <v>32.738151999999999</v>
       </c>
       <c r="S467" s="6">
-        <v>380.95370500000001</v>
+        <v>33.094569999999997</v>
       </c>
       <c r="T467" s="6">
-        <v>372.82488999999998</v>
+        <v>33.326416000000002</v>
       </c>
       <c r="U467" s="6">
-        <v>367.89193699999998</v>
+        <v>33.432651999999997</v>
       </c>
       <c r="V467" s="6">
-        <v>369.558044</v>
+        <v>33.518073999999999</v>
       </c>
       <c r="W467" s="6">
-        <v>371.560272</v>
+        <v>33.409202999999998</v>
       </c>
       <c r="X467" s="6">
-        <v>381.83117700000003</v>
+        <v>33.683928999999999</v>
       </c>
       <c r="Y467" s="6">
-        <v>386.15234400000003</v>
+        <v>33.769150000000003</v>
       </c>
       <c r="Z467" s="6">
-        <v>391.56906099999998</v>
+        <v>34.104706</v>
       </c>
       <c r="AA467" s="6">
-        <v>398.52313199999998</v>
+        <v>34.494877000000002</v>
       </c>
       <c r="AB467" s="6">
-        <v>400.87292500000001</v>
+        <v>34.746941</v>
       </c>
       <c r="AC467" s="6">
-        <v>405.30721999999997</v>
+        <v>34.898369000000002</v>
       </c>
       <c r="AD467" s="6">
-        <v>408.41900600000002</v>
+        <v>35.205852999999998</v>
       </c>
       <c r="AE467" s="6">
-        <v>408.42327899999998</v>
+        <v>35.383823</v>
       </c>
       <c r="AF467" s="6">
-        <v>405.168091</v>
+        <v>35.639206000000001</v>
       </c>
       <c r="AG467" s="6">
-        <v>406.52313199999998</v>
+        <v>36.077553000000002</v>
       </c>
       <c r="AH467" s="6">
-        <v>414.03848299999999</v>
+        <v>36.387507999999997</v>
       </c>
       <c r="AI467" s="6">
-        <v>414.08026100000001</v>
+        <v>36.491661000000001</v>
       </c>
       <c r="AJ467" s="6">
-        <v>418.70697000000001</v>
+        <v>36.796616</v>
       </c>
     </row>
     <row r="468" spans="1:36" x14ac:dyDescent="0.25">
@@ -51970,99 +51968,99 @@
         <v>290</v>
       </c>
       <c r="D468" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E468" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F468" s="9"/>
-      <c r="G468" s="9"/>
-      <c r="H468" s="9">
-        <v>766.81842112473646</v>
-      </c>
-      <c r="I468" s="9">
-        <v>771.53503524153496</v>
-      </c>
-      <c r="J468" s="9">
-        <v>757.66857870625313</v>
-      </c>
-      <c r="K468" s="9">
-        <v>764.1548486606448</v>
-      </c>
-      <c r="L468" s="9">
-        <v>777.08782919422697</v>
-      </c>
-      <c r="M468" s="9">
-        <v>783.59504313562707</v>
-      </c>
-      <c r="N468" s="9">
-        <v>789.8612272883347</v>
-      </c>
-      <c r="O468" s="9">
-        <v>792.15441090260913</v>
-      </c>
-      <c r="P468" s="9">
-        <v>794.12590192779828</v>
-      </c>
-      <c r="Q468" s="9">
-        <v>797.27262683966876</v>
-      </c>
-      <c r="R468" s="9">
-        <v>804.08049339463344</v>
-      </c>
-      <c r="S468" s="9">
-        <v>808.45974505682398</v>
-      </c>
-      <c r="T468" s="9">
-        <v>813.39275761194904</v>
-      </c>
-      <c r="U468" s="9">
-        <v>819.04100449298346</v>
-      </c>
-      <c r="V468" s="9">
-        <v>822.39621381498455</v>
-      </c>
-      <c r="W468" s="9">
-        <v>826.45740601928242</v>
-      </c>
-      <c r="X468" s="9">
-        <v>830.17804513978353</v>
-      </c>
-      <c r="Y468" s="9">
-        <v>832.01558884638575</v>
-      </c>
-      <c r="Z468" s="9">
-        <v>838.35796164624765</v>
-      </c>
-      <c r="AA468" s="9">
-        <v>845.92818561172589</v>
-      </c>
-      <c r="AB468" s="9">
-        <v>851.56375012552212</v>
-      </c>
-      <c r="AC468" s="9">
-        <v>856.49621743333171</v>
-      </c>
-      <c r="AD468" s="9">
-        <v>859.41403630253853</v>
-      </c>
-      <c r="AE468" s="9">
-        <v>860.84316911478049</v>
-      </c>
-      <c r="AF468" s="9">
-        <v>862.26230817578062</v>
-      </c>
-      <c r="AG468" s="9">
-        <v>864.77730997097547</v>
-      </c>
-      <c r="AH468" s="9">
-        <v>870.45542341590613</v>
-      </c>
-      <c r="AI468" s="9">
-        <v>875.18002801541479</v>
-      </c>
-      <c r="AJ468" s="9">
-        <v>878.93954276268255</v>
+      <c r="F468" s="6"/>
+      <c r="G468" s="6"/>
+      <c r="H468" s="6">
+        <v>47.923614999999998</v>
+      </c>
+      <c r="I468" s="6">
+        <v>42.598323999999998</v>
+      </c>
+      <c r="J468" s="6">
+        <v>39.277110999999998</v>
+      </c>
+      <c r="K468" s="6">
+        <v>38.472492000000003</v>
+      </c>
+      <c r="L468" s="6">
+        <v>37.336509999999997</v>
+      </c>
+      <c r="M468" s="6">
+        <v>35.690700999999997</v>
+      </c>
+      <c r="N468" s="6">
+        <v>33.943455</v>
+      </c>
+      <c r="O468" s="6">
+        <v>33.803631000000003</v>
+      </c>
+      <c r="P468" s="6">
+        <v>33.426430000000003</v>
+      </c>
+      <c r="Q468" s="6">
+        <v>33.190029000000003</v>
+      </c>
+      <c r="R468" s="6">
+        <v>33.004340999999997</v>
+      </c>
+      <c r="S468" s="6">
+        <v>33.193519999999999</v>
+      </c>
+      <c r="T468" s="6">
+        <v>33.402813000000002</v>
+      </c>
+      <c r="U468" s="6">
+        <v>33.547038999999998</v>
+      </c>
+      <c r="V468" s="6">
+        <v>33.578754000000004</v>
+      </c>
+      <c r="W468" s="6">
+        <v>33.764187</v>
+      </c>
+      <c r="X468" s="6">
+        <v>34.014595</v>
+      </c>
+      <c r="Y468" s="6">
+        <v>34.213318000000001</v>
+      </c>
+      <c r="Z468" s="6">
+        <v>34.656494000000002</v>
+      </c>
+      <c r="AA468" s="6">
+        <v>35.018475000000002</v>
+      </c>
+      <c r="AB468" s="6">
+        <v>35.342686</v>
+      </c>
+      <c r="AC468" s="6">
+        <v>35.666283</v>
+      </c>
+      <c r="AD468" s="6">
+        <v>36.195202000000002</v>
+      </c>
+      <c r="AE468" s="6">
+        <v>36.622039999999998</v>
+      </c>
+      <c r="AF468" s="6">
+        <v>37.187427999999997</v>
+      </c>
+      <c r="AG468" s="6">
+        <v>37.660617999999999</v>
+      </c>
+      <c r="AH468" s="6">
+        <v>37.84301</v>
+      </c>
+      <c r="AI468" s="6">
+        <v>37.870106</v>
+      </c>
+      <c r="AJ468" s="6">
+        <v>38.370269999999998</v>
       </c>
     </row>
     <row r="469" spans="1:36" x14ac:dyDescent="0.25">
@@ -52076,103 +52074,103 @@
         <v>290</v>
       </c>
       <c r="D469" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E469" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F469" s="9">
-        <v>731.14295221459895</v>
-      </c>
-      <c r="G469" s="9">
-        <v>744.90572080791662</v>
-      </c>
-      <c r="H469" s="9">
-        <v>766.85427222448288</v>
-      </c>
-      <c r="I469" s="9">
-        <v>742.77846919242961</v>
-      </c>
-      <c r="J469" s="9">
-        <v>742.84904558684218</v>
-      </c>
-      <c r="K469" s="9">
-        <v>751.26885452837496</v>
-      </c>
-      <c r="L469" s="9">
-        <v>765.47197991959581</v>
-      </c>
-      <c r="M469" s="9">
-        <v>773.68770495946933</v>
-      </c>
-      <c r="N469" s="9">
-        <v>780.65174450343284</v>
-      </c>
-      <c r="O469" s="9">
-        <v>783.46899299593929</v>
-      </c>
-      <c r="P469" s="9">
-        <v>787.10692601775202</v>
-      </c>
-      <c r="Q469" s="9">
-        <v>791.47485478518149</v>
-      </c>
-      <c r="R469" s="9">
-        <v>798.88095122681068</v>
-      </c>
-      <c r="S469" s="9">
-        <v>803.32912775210025</v>
-      </c>
-      <c r="T469" s="9">
-        <v>808.53737010656391</v>
-      </c>
-      <c r="U469" s="9">
-        <v>812.8673457388611</v>
-      </c>
-      <c r="V469" s="9">
-        <v>817.85092029001703</v>
-      </c>
-      <c r="W469" s="9">
-        <v>822.44981533382861</v>
-      </c>
-      <c r="X469" s="9">
-        <v>825.20140191919813</v>
-      </c>
-      <c r="Y469" s="9">
-        <v>828.97791553624211</v>
-      </c>
-      <c r="Z469" s="9">
-        <v>833.84140078957</v>
-      </c>
-      <c r="AA469" s="9">
-        <v>837.86081756377973</v>
-      </c>
-      <c r="AB469" s="9">
-        <v>843.50784439811775</v>
-      </c>
-      <c r="AC469" s="9">
-        <v>848.74268659523864</v>
-      </c>
-      <c r="AD469" s="9">
-        <v>853.54981499642452</v>
-      </c>
-      <c r="AE469" s="9">
-        <v>856.42622524347473</v>
-      </c>
-      <c r="AF469" s="9">
-        <v>859.80070250530537</v>
-      </c>
-      <c r="AG469" s="9">
-        <v>864.24540599539989</v>
-      </c>
-      <c r="AH469" s="9">
-        <v>868.51394421122427</v>
-      </c>
-      <c r="AI469" s="9">
-        <v>873.15555477836983</v>
-      </c>
-      <c r="AJ469" s="9">
-        <v>880.07506224970098</v>
+      <c r="F469" s="6">
+        <v>1664.3915927854009</v>
+      </c>
+      <c r="G469" s="6">
+        <v>1766.9177041920832</v>
+      </c>
+      <c r="H469" s="6">
+        <v>1723.9456237755169</v>
+      </c>
+      <c r="I469" s="6">
+        <v>1620.6323278075704</v>
+      </c>
+      <c r="J469" s="6">
+        <v>1609.8043964131577</v>
+      </c>
+      <c r="K469" s="6">
+        <v>1509.6367234716251</v>
+      </c>
+      <c r="L469" s="6">
+        <v>1376.2896160804044</v>
+      </c>
+      <c r="M469" s="6">
+        <v>1240.2787570405305</v>
+      </c>
+      <c r="N469" s="6">
+        <v>1131.2334184965671</v>
+      </c>
+      <c r="O469" s="6">
+        <v>1048.8791820040606</v>
+      </c>
+      <c r="P469" s="6">
+        <v>989.91695398224795</v>
+      </c>
+      <c r="Q469" s="6">
+        <v>970.09084921481838</v>
+      </c>
+      <c r="R469" s="6">
+        <v>965.92497177318933</v>
+      </c>
+      <c r="S469" s="6">
+        <v>961.60742624789975</v>
+      </c>
+      <c r="T469" s="6">
+        <v>945.6682278934361</v>
+      </c>
+      <c r="U469" s="6">
+        <v>936.8797552611386</v>
+      </c>
+      <c r="V469" s="6">
+        <v>931.36760070998298</v>
+      </c>
+      <c r="W469" s="6">
+        <v>932.04965066617137</v>
+      </c>
+      <c r="X469" s="6">
+        <v>924.45210108080187</v>
+      </c>
+      <c r="Y469" s="6">
+        <v>926.19423346375766</v>
+      </c>
+      <c r="Z469" s="6">
+        <v>923.99128621042996</v>
+      </c>
+      <c r="AA469" s="6">
+        <v>929.77523043622034</v>
+      </c>
+      <c r="AB469" s="6">
+        <v>933.28797760188229</v>
+      </c>
+      <c r="AC469" s="6">
+        <v>929.98734040476143</v>
+      </c>
+      <c r="AD469" s="6">
+        <v>928.76859000357558</v>
+      </c>
+      <c r="AE469" s="6">
+        <v>925.67802275652514</v>
+      </c>
+      <c r="AF469" s="6">
+        <v>913.66449249469463</v>
+      </c>
+      <c r="AG469" s="6">
+        <v>913.4344350046</v>
+      </c>
+      <c r="AH469" s="6">
+        <v>908.25242878877566</v>
+      </c>
+      <c r="AI469" s="6">
+        <v>903.93225922163026</v>
+      </c>
+      <c r="AJ469" s="6">
+        <v>895.683817750299</v>
       </c>
     </row>
     <row r="470" spans="1:36" x14ac:dyDescent="0.25">
@@ -52180,109 +52178,105 @@
         <v>292</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D470" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E470" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F470" s="6">
-        <v>786.94000200000005</v>
-      </c>
-      <c r="G470" s="6">
-        <v>907.881348</v>
-      </c>
+      <c r="F470" s="6"/>
+      <c r="G470" s="6"/>
       <c r="H470" s="6">
-        <v>841.87249799999995</v>
+        <v>1724.2345268752636</v>
       </c>
       <c r="I470" s="6">
-        <v>782.94958499999996</v>
+        <v>1620.6402267584651</v>
       </c>
       <c r="J470" s="6">
-        <v>819.591858</v>
+        <v>1602.964264293747</v>
       </c>
       <c r="K470" s="6">
-        <v>746.76989700000001</v>
+        <v>1531.9475373393552</v>
       </c>
       <c r="L470" s="6">
-        <v>636.31329300000004</v>
+        <v>1485.7001658057732</v>
       </c>
       <c r="M470" s="6">
-        <v>535.83624299999997</v>
+        <v>1451.8891788643728</v>
       </c>
       <c r="N470" s="6">
-        <v>444.92312600000002</v>
+        <v>1433.5547887116654</v>
       </c>
       <c r="O470" s="6">
-        <v>377.78985599999999</v>
+        <v>1423.0709610973909</v>
       </c>
       <c r="P470" s="6">
-        <v>335.78384399999999</v>
+        <v>1398.8317400722017</v>
       </c>
       <c r="Q470" s="6">
-        <v>329.98742700000003</v>
+        <v>1365.3941211603312</v>
       </c>
       <c r="R470" s="6">
-        <v>331.333282</v>
+        <v>1341.9270756053663</v>
       </c>
       <c r="S470" s="6">
-        <v>342.21914700000002</v>
+        <v>1338.449251943176</v>
       </c>
       <c r="T470" s="6">
-        <v>333.01815800000003</v>
+        <v>1335.4323763880511</v>
       </c>
       <c r="U470" s="6">
-        <v>329.66091899999998</v>
+        <v>1324.0880245070166</v>
       </c>
       <c r="V470" s="6">
-        <v>322.24679600000002</v>
+        <v>1311.6269791850157</v>
       </c>
       <c r="W470" s="6">
-        <v>320.92477400000001</v>
+        <v>1312.3351049807177</v>
       </c>
       <c r="X470" s="6">
-        <v>302.98416099999997</v>
+        <v>1293.0650888602165</v>
       </c>
       <c r="Y470" s="6">
-        <v>300.04983499999997</v>
+        <v>1283.6979121536142</v>
       </c>
       <c r="Z470" s="6">
-        <v>291.84722900000003</v>
+        <v>1262.1500953537525</v>
       </c>
       <c r="AA470" s="6">
-        <v>290.74569700000001</v>
+        <v>1262.1905273882742</v>
       </c>
       <c r="AB470" s="6">
-        <v>291.83300800000001</v>
+        <v>1267.4410408744779</v>
       </c>
       <c r="AC470" s="6">
-        <v>283.78326399999997</v>
+        <v>1269.8138105666683</v>
       </c>
       <c r="AD470" s="6">
-        <v>279.43450899999999</v>
+        <v>1267.6087296974615</v>
       </c>
       <c r="AE470" s="6">
-        <v>276.50714099999999</v>
+        <v>1265.6168838852195</v>
       </c>
       <c r="AF470" s="6">
-        <v>269.95431500000001</v>
+        <v>1267.7945758242195</v>
       </c>
       <c r="AG470" s="6">
-        <v>266.96942100000001</v>
+        <v>1263.3573030290245</v>
       </c>
       <c r="AH470" s="6">
-        <v>251.117661</v>
+        <v>1253.1812345840938</v>
       </c>
       <c r="AI470" s="6">
-        <v>246.698227</v>
+        <v>1255.9048709845854</v>
       </c>
       <c r="AJ470" s="6">
-        <v>233.81999200000001</v>
+        <v>1257.6111772373174</v>
       </c>
     </row>
     <row r="471" spans="1:36" x14ac:dyDescent="0.25">
@@ -52296,99 +52290,103 @@
         <v>290</v>
       </c>
       <c r="D471" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E471" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F471" s="6"/>
-      <c r="G471" s="6"/>
+      <c r="F471" s="6">
+        <v>0</v>
+      </c>
+      <c r="G471" s="6">
+        <v>0</v>
+      </c>
       <c r="H471" s="6">
-        <v>842.10742200000004</v>
+        <v>0</v>
       </c>
       <c r="I471" s="6">
-        <v>782.91583300000002</v>
+        <v>0</v>
       </c>
       <c r="J471" s="6">
-        <v>816.63812299999995</v>
+        <v>0</v>
       </c>
       <c r="K471" s="6">
-        <v>748.75506600000006</v>
+        <v>0</v>
       </c>
       <c r="L471" s="6">
-        <v>692.54589799999997</v>
+        <v>0</v>
       </c>
       <c r="M471" s="6">
-        <v>653.952271</v>
+        <v>0</v>
       </c>
       <c r="N471" s="6">
-        <v>624.05761700000005</v>
+        <v>0</v>
       </c>
       <c r="O471" s="6">
-        <v>607.47186299999998</v>
+        <v>0</v>
       </c>
       <c r="P471" s="6">
-        <v>586.73736599999995</v>
+        <v>0</v>
       </c>
       <c r="Q471" s="6">
-        <v>576.66180399999996</v>
+        <v>0</v>
       </c>
       <c r="R471" s="6">
-        <v>572.75982699999997</v>
+        <v>0</v>
       </c>
       <c r="S471" s="6">
-        <v>570.38262899999995</v>
+        <v>0</v>
       </c>
       <c r="T471" s="6">
-        <v>560.18658400000004</v>
+        <v>0</v>
       </c>
       <c r="U471" s="6">
-        <v>550.13665800000001</v>
+        <v>0</v>
       </c>
       <c r="V471" s="6">
-        <v>547.08416699999998</v>
+        <v>0</v>
       </c>
       <c r="W471" s="6">
-        <v>544.50073199999997</v>
+        <v>0</v>
       </c>
       <c r="X471" s="6">
-        <v>510.97274800000002</v>
+        <v>0</v>
       </c>
       <c r="Y471" s="6">
-        <v>502.19958500000001</v>
+        <v>0</v>
       </c>
       <c r="Z471" s="6">
-        <v>472.72915599999999</v>
+        <v>0</v>
       </c>
       <c r="AA471" s="6">
-        <v>465.63339200000001</v>
+        <v>0</v>
       </c>
       <c r="AB471" s="6">
-        <v>462.465057</v>
+        <v>0</v>
       </c>
       <c r="AC471" s="6">
-        <v>456.13046300000002</v>
+        <v>0</v>
       </c>
       <c r="AD471" s="6">
-        <v>446.820312</v>
+        <v>0</v>
       </c>
       <c r="AE471" s="6">
-        <v>444.94314600000001</v>
+        <v>0</v>
       </c>
       <c r="AF471" s="6">
-        <v>443.49343900000002</v>
+        <v>0</v>
       </c>
       <c r="AG471" s="6">
-        <v>436.04544099999998</v>
+        <v>0</v>
       </c>
       <c r="AH471" s="6">
-        <v>411.308899</v>
+        <v>0</v>
       </c>
       <c r="AI471" s="6">
-        <v>407.36407500000001</v>
+        <v>0</v>
       </c>
       <c r="AJ471" s="6">
-        <v>405.54458599999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:36" x14ac:dyDescent="0.25">
@@ -52402,103 +52400,103 @@
         <v>290</v>
       </c>
       <c r="D472" s="5" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E472" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F472" s="6">
-        <v>874.853882</v>
+        <v>0</v>
       </c>
       <c r="G472" s="6">
-        <v>1000.766296</v>
+        <v>0</v>
       </c>
       <c r="H472" s="6">
-        <v>928.96258499999999</v>
+        <v>0</v>
       </c>
       <c r="I472" s="6">
-        <v>867.55957000000001</v>
+        <v>0</v>
       </c>
       <c r="J472" s="6">
-        <v>902.93322799999999</v>
+        <v>0</v>
       </c>
       <c r="K472" s="6">
-        <v>829.46691899999996</v>
+        <v>0</v>
       </c>
       <c r="L472" s="6">
-        <v>719.36694299999999</v>
+        <v>0</v>
       </c>
       <c r="M472" s="6">
-        <v>618.92047100000002</v>
+        <v>0</v>
       </c>
       <c r="N472" s="6">
-        <v>527.64929199999995</v>
+        <v>0</v>
       </c>
       <c r="O472" s="6">
-        <v>459.78680400000002</v>
+        <v>0</v>
       </c>
       <c r="P472" s="6">
-        <v>416.64859000000001</v>
+        <v>0</v>
       </c>
       <c r="Q472" s="6">
-        <v>409.885559</v>
+        <v>0</v>
       </c>
       <c r="R472" s="6">
-        <v>410.72726399999999</v>
+        <v>0</v>
       </c>
       <c r="S472" s="6">
-        <v>420.41888399999999</v>
+        <v>0</v>
       </c>
       <c r="T472" s="6">
-        <v>410.10412600000001</v>
+        <v>0</v>
       </c>
       <c r="U472" s="6">
-        <v>405.74105800000001</v>
+        <v>0</v>
       </c>
       <c r="V472" s="6">
-        <v>397.24383499999999</v>
+        <v>0</v>
       </c>
       <c r="W472" s="6">
-        <v>395.06237800000002</v>
+        <v>0</v>
       </c>
       <c r="X472" s="6">
-        <v>375.91992199999999</v>
+        <v>0</v>
       </c>
       <c r="Y472" s="6">
-        <v>371.72457900000001</v>
+        <v>0</v>
       </c>
       <c r="Z472" s="6">
-        <v>362.52984600000002</v>
+        <v>0</v>
       </c>
       <c r="AA472" s="6">
-        <v>360.74533100000002</v>
+        <v>0</v>
       </c>
       <c r="AB472" s="6">
-        <v>361.35510299999999</v>
+        <v>0</v>
       </c>
       <c r="AC472" s="6">
-        <v>352.64392099999998</v>
+        <v>0</v>
       </c>
       <c r="AD472" s="6">
-        <v>347.44146699999999</v>
+        <v>0</v>
       </c>
       <c r="AE472" s="6">
-        <v>343.61245700000001</v>
+        <v>0</v>
       </c>
       <c r="AF472" s="6">
-        <v>336.77972399999999</v>
+        <v>0</v>
       </c>
       <c r="AG472" s="6">
-        <v>333.81881700000002</v>
+        <v>0</v>
       </c>
       <c r="AH472" s="6">
-        <v>318.29501299999998</v>
+        <v>0</v>
       </c>
       <c r="AI472" s="6">
-        <v>313.34719799999999</v>
+        <v>0</v>
       </c>
       <c r="AJ472" s="6">
-        <v>300.07513399999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:36" x14ac:dyDescent="0.25">
@@ -52506,105 +52504,109 @@
         <v>292</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D473" s="5" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E473" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F473" s="6"/>
-      <c r="G473" s="6"/>
+      <c r="F473" s="6">
+        <v>1448.415405</v>
+      </c>
+      <c r="G473" s="6">
+        <v>1551.19165</v>
+      </c>
       <c r="H473" s="6">
-        <v>929.19750999999997</v>
+        <v>1507.0195309999999</v>
       </c>
       <c r="I473" s="6">
-        <v>872.128784</v>
+        <v>1396.994263</v>
       </c>
       <c r="J473" s="6">
-        <v>901.584656</v>
+        <v>1395.2452390000001</v>
       </c>
       <c r="K473" s="6">
-        <v>832.71356200000002</v>
+        <v>1295.490356</v>
       </c>
       <c r="L473" s="6">
-        <v>777.01342799999998</v>
+        <v>1161.3896480000001</v>
       </c>
       <c r="M473" s="6">
-        <v>738.19860800000004</v>
+        <v>1024.768433</v>
       </c>
       <c r="N473" s="6">
-        <v>707.66980000000001</v>
+        <v>913.38531499999999</v>
       </c>
       <c r="O473" s="6">
-        <v>690.14917000000003</v>
+        <v>828.36340299999995</v>
       </c>
       <c r="P473" s="6">
-        <v>667.98364300000003</v>
+        <v>768.31158400000004</v>
       </c>
       <c r="Q473" s="6">
-        <v>656.66058299999997</v>
+        <v>748.60839799999997</v>
       </c>
       <c r="R473" s="6">
-        <v>652.12420699999996</v>
+        <v>743.97900400000003</v>
       </c>
       <c r="S473" s="6">
-        <v>648.51544200000001</v>
+        <v>739.65332000000001</v>
       </c>
       <c r="T473" s="6">
-        <v>637.33862299999998</v>
+        <v>722.29968299999996</v>
       </c>
       <c r="U473" s="6">
-        <v>626.41619900000001</v>
+        <v>714.00109899999995</v>
       </c>
       <c r="V473" s="6">
-        <v>622.14001499999995</v>
+        <v>708.19818099999998</v>
       </c>
       <c r="W473" s="6">
-        <v>618.59051499999998</v>
+        <v>708.79504399999996</v>
       </c>
       <c r="X473" s="6">
-        <v>584.04022199999997</v>
+        <v>700.90167199999996</v>
       </c>
       <c r="Y473" s="6">
-        <v>574.019226</v>
+        <v>702.26122999999995</v>
       </c>
       <c r="Z473" s="6">
-        <v>543.80169699999999</v>
+        <v>699.40795900000001</v>
       </c>
       <c r="AA473" s="6">
-        <v>536.48498500000005</v>
+        <v>705.098389</v>
       </c>
       <c r="AB473" s="6">
-        <v>532.83837900000003</v>
+        <v>708.36437999999998</v>
       </c>
       <c r="AC473" s="6">
-        <v>525.80627400000003</v>
+        <v>704.53582800000004</v>
       </c>
       <c r="AD473" s="6">
-        <v>515.74847399999999</v>
+        <v>703.08856200000002</v>
       </c>
       <c r="AE473" s="6">
-        <v>513.08337400000005</v>
+        <v>699.95874000000003</v>
       </c>
       <c r="AF473" s="6">
-        <v>511.13250699999998</v>
+        <v>690.17761199999995</v>
       </c>
       <c r="AG473" s="6">
-        <v>502.99182100000002</v>
+        <v>688.58081100000004</v>
       </c>
       <c r="AH473" s="6">
-        <v>478.43615699999998</v>
+        <v>680.23791500000004</v>
       </c>
       <c r="AI473" s="6">
-        <v>473.74349999999998</v>
+        <v>675.87823500000002</v>
       </c>
       <c r="AJ473" s="6">
-        <v>471.18325800000002</v>
+        <v>667.62524399999995</v>
       </c>
     </row>
     <row r="474" spans="1:36" x14ac:dyDescent="0.25">
@@ -52612,109 +52614,105 @@
         <v>292</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D474" s="5" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E474" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F474" s="6">
-        <v>1052.532379</v>
-      </c>
-      <c r="G474" s="6">
-        <v>1123.158936</v>
-      </c>
-      <c r="H474" s="4">
-        <v>1092.453796</v>
-      </c>
-      <c r="I474" s="4">
-        <v>1006.819886</v>
-      </c>
-      <c r="J474" s="4">
-        <v>1010.5260619999999</v>
-      </c>
-      <c r="K474" s="4">
-        <v>934.75387599999999</v>
-      </c>
-      <c r="L474" s="4">
-        <v>834.46423300000004</v>
-      </c>
-      <c r="M474" s="4">
-        <v>733.81039400000009</v>
-      </c>
-      <c r="N474" s="4">
-        <v>654.56634499999996</v>
-      </c>
-      <c r="O474" s="4">
-        <v>594.45858799999996</v>
-      </c>
-      <c r="P474" s="4">
-        <v>553.05490099999997</v>
-      </c>
-      <c r="Q474" s="4">
-        <v>538.33902</v>
-      </c>
-      <c r="R474" s="4">
-        <v>534.59869400000002</v>
-      </c>
-      <c r="S474" s="4">
-        <v>529.66590900000006</v>
-      </c>
-      <c r="T474" s="4">
-        <v>516.00253299999997</v>
-      </c>
-      <c r="U474" s="4">
-        <v>508.63624600000003</v>
-      </c>
-      <c r="V474" s="4">
-        <v>503.10414100000003</v>
-      </c>
-      <c r="W474" s="4">
-        <v>504.053741</v>
-      </c>
-      <c r="X474" s="4">
-        <v>498.26593000000003</v>
-      </c>
-      <c r="Y474" s="4">
-        <v>498.16516100000001</v>
-      </c>
-      <c r="Z474" s="4">
-        <v>495.55229199999997</v>
-      </c>
-      <c r="AA474" s="4">
-        <v>498.46119699999997</v>
-      </c>
-      <c r="AB474" s="4">
-        <v>499.43710299999998</v>
-      </c>
-      <c r="AC474" s="4">
-        <v>495.83212299999997</v>
-      </c>
-      <c r="AD474" s="4">
-        <v>494.09338300000002</v>
-      </c>
-      <c r="AE474" s="4">
-        <v>491.97416700000002</v>
-      </c>
-      <c r="AF474" s="4">
-        <v>484.92602599999998</v>
-      </c>
-      <c r="AG474" s="4">
-        <v>483.69300799999996</v>
-      </c>
-      <c r="AH474" s="4">
-        <v>477.73208599999998</v>
+      <c r="F474" s="6"/>
+      <c r="G474" s="6"/>
+      <c r="H474" s="6">
+        <v>1507.2661129999999</v>
+      </c>
+      <c r="I474" s="6">
+        <v>1396.9580080000001</v>
+      </c>
+      <c r="J474" s="6">
+        <v>1387.346802</v>
+      </c>
+      <c r="K474" s="6">
+        <v>1317.4365230000001</v>
+      </c>
+      <c r="L474" s="6">
+        <v>1269.72522</v>
+      </c>
+      <c r="M474" s="6">
+        <v>1235.09375</v>
+      </c>
+      <c r="N474" s="6">
+        <v>1214.805298</v>
+      </c>
+      <c r="O474" s="6">
+        <v>1202.780518</v>
+      </c>
+      <c r="P474" s="6">
+        <v>1177.160889</v>
+      </c>
+      <c r="Q474" s="6">
+        <v>1144.6982419999999</v>
+      </c>
+      <c r="R474" s="6">
+        <v>1121.2753909999999</v>
+      </c>
+      <c r="S474" s="6">
+        <v>1117.068115</v>
+      </c>
+      <c r="T474" s="6">
+        <v>1111.8131100000001</v>
+      </c>
+      <c r="U474" s="6">
+        <v>1100.4930420000001</v>
+      </c>
+      <c r="V474" s="6">
+        <v>1086.4411620000001</v>
+      </c>
+      <c r="W474" s="6">
+        <v>1086.2966309999999</v>
+      </c>
+      <c r="X474" s="6">
+        <v>1067.955811</v>
+      </c>
+      <c r="Y474" s="6">
+        <v>1060.3165280000001</v>
+      </c>
+      <c r="Z474" s="6">
+        <v>1039.2182620000001</v>
+      </c>
+      <c r="AA474" s="6">
+        <v>1038.868408</v>
+      </c>
+      <c r="AB474" s="6">
+        <v>1043.8183590000001</v>
+      </c>
+      <c r="AC474" s="6">
+        <v>1045.90625</v>
+      </c>
+      <c r="AD474" s="6">
+        <v>1044.2646480000001</v>
+      </c>
+      <c r="AE474" s="6">
+        <v>1041.471558</v>
+      </c>
+      <c r="AF474" s="6">
+        <v>1042.6320800000001</v>
+      </c>
+      <c r="AG474" s="6">
+        <v>1037.446655</v>
+      </c>
+      <c r="AH474" s="6">
+        <v>1023.824402</v>
       </c>
       <c r="AI474" s="6">
-        <v>474.75453099999999</v>
+        <v>1025.5627440000001</v>
       </c>
       <c r="AJ474" s="6">
-        <v>469.02349900000002</v>
+        <v>1027.7308350000001</v>
       </c>
     </row>
     <row r="475" spans="1:36" x14ac:dyDescent="0.25">
@@ -52722,105 +52720,109 @@
         <v>292</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D475" s="5" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E475" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F475" s="6"/>
-      <c r="G475" s="6"/>
-      <c r="H475" s="4">
-        <v>1093.144104</v>
-      </c>
-      <c r="I475" s="4">
-        <v>1012.4879760000001</v>
-      </c>
-      <c r="J475" s="4">
-        <v>1010.815826</v>
-      </c>
-      <c r="K475" s="4">
-        <v>957.37698300000011</v>
-      </c>
-      <c r="L475" s="4">
-        <v>918.755402</v>
-      </c>
-      <c r="M475" s="4">
-        <v>891.03613199999995</v>
-      </c>
-      <c r="N475" s="4">
-        <v>876.00787400000002</v>
-      </c>
-      <c r="O475" s="4">
-        <v>865.84329200000002</v>
-      </c>
-      <c r="P475" s="4">
-        <v>845.90515099999993</v>
-      </c>
-      <c r="Q475" s="4">
-        <v>821.80062900000007</v>
-      </c>
-      <c r="R475" s="4">
-        <v>802.38870199999997</v>
-      </c>
-      <c r="S475" s="4">
-        <v>797.41973800000005</v>
-      </c>
-      <c r="T475" s="4">
-        <v>792.36184600000001</v>
-      </c>
-      <c r="U475" s="4">
-        <v>782.45983899999999</v>
-      </c>
-      <c r="V475" s="4">
-        <v>771.46282999999994</v>
-      </c>
-      <c r="W475" s="4">
-        <v>770.236175</v>
-      </c>
-      <c r="X475" s="4">
-        <v>756.92034899999999</v>
-      </c>
-      <c r="Y475" s="4">
-        <v>751.02932800000008</v>
-      </c>
-      <c r="Z475" s="4">
-        <v>735.25744600000007</v>
-      </c>
-      <c r="AA475" s="4">
-        <v>733.39773600000001</v>
-      </c>
-      <c r="AB475" s="4">
-        <v>736.60809300000005</v>
-      </c>
-      <c r="AC475" s="4">
-        <v>737.13085999999998</v>
-      </c>
-      <c r="AD475" s="4">
-        <v>736.33023100000003</v>
-      </c>
-      <c r="AE475" s="4">
-        <v>734.36257999999998</v>
-      </c>
-      <c r="AF475" s="4">
-        <v>735.32186899999999</v>
-      </c>
-      <c r="AG475" s="4">
-        <v>731.74221799999998</v>
-      </c>
-      <c r="AH475" s="4">
-        <v>721.162781</v>
+      <c r="F475" s="6">
+        <v>786.94000200000005</v>
+      </c>
+      <c r="G475" s="6">
+        <v>907.881348</v>
+      </c>
+      <c r="H475" s="6">
+        <v>841.87249799999995</v>
+      </c>
+      <c r="I475" s="6">
+        <v>782.94958499999996</v>
+      </c>
+      <c r="J475" s="6">
+        <v>819.591858</v>
+      </c>
+      <c r="K475" s="6">
+        <v>746.76989700000001</v>
+      </c>
+      <c r="L475" s="6">
+        <v>636.31329300000004</v>
+      </c>
+      <c r="M475" s="6">
+        <v>535.83624299999997</v>
+      </c>
+      <c r="N475" s="6">
+        <v>444.92312600000002</v>
+      </c>
+      <c r="O475" s="6">
+        <v>377.78985599999999</v>
+      </c>
+      <c r="P475" s="6">
+        <v>335.78384399999999</v>
+      </c>
+      <c r="Q475" s="6">
+        <v>329.98742700000003</v>
+      </c>
+      <c r="R475" s="6">
+        <v>331.333282</v>
+      </c>
+      <c r="S475" s="6">
+        <v>342.21914700000002</v>
+      </c>
+      <c r="T475" s="6">
+        <v>333.01815800000003</v>
+      </c>
+      <c r="U475" s="6">
+        <v>329.66091899999998</v>
+      </c>
+      <c r="V475" s="6">
+        <v>322.24679600000002</v>
+      </c>
+      <c r="W475" s="6">
+        <v>320.92477400000001</v>
+      </c>
+      <c r="X475" s="6">
+        <v>302.98416099999997</v>
+      </c>
+      <c r="Y475" s="6">
+        <v>300.04983499999997</v>
+      </c>
+      <c r="Z475" s="6">
+        <v>291.84722900000003</v>
+      </c>
+      <c r="AA475" s="6">
+        <v>290.74569700000001</v>
+      </c>
+      <c r="AB475" s="6">
+        <v>291.83300800000001</v>
+      </c>
+      <c r="AC475" s="6">
+        <v>283.78326399999997</v>
+      </c>
+      <c r="AD475" s="6">
+        <v>279.43450899999999</v>
+      </c>
+      <c r="AE475" s="6">
+        <v>276.50714099999999</v>
+      </c>
+      <c r="AF475" s="6">
+        <v>269.95431500000001</v>
+      </c>
+      <c r="AG475" s="6">
+        <v>266.96942100000001</v>
+      </c>
+      <c r="AH475" s="6">
+        <v>251.117661</v>
       </c>
       <c r="AI475" s="6">
-        <v>723.00384499999996</v>
+        <v>246.698227</v>
       </c>
       <c r="AJ475" s="6">
-        <v>724.61828700000001</v>
+        <v>233.81999200000001</v>
       </c>
     </row>
     <row r="476" spans="1:36" x14ac:dyDescent="0.25">
@@ -53044,109 +53046,105 @@
         <v>292</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D478" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E478" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F478" s="6">
-        <v>1448.415405</v>
-      </c>
-      <c r="G478" s="6">
-        <v>1551.19165</v>
-      </c>
+      <c r="F478" s="6"/>
+      <c r="G478" s="6"/>
       <c r="H478" s="6">
-        <v>1507.0195309999999</v>
+        <v>842.10742200000004</v>
       </c>
       <c r="I478" s="6">
-        <v>1396.994263</v>
+        <v>782.91583300000002</v>
       </c>
       <c r="J478" s="6">
-        <v>1395.2452390000001</v>
+        <v>816.63812299999995</v>
       </c>
       <c r="K478" s="6">
-        <v>1295.490356</v>
+        <v>748.75506600000006</v>
       </c>
       <c r="L478" s="6">
-        <v>1161.3896480000001</v>
+        <v>692.54589799999997</v>
       </c>
       <c r="M478" s="6">
-        <v>1024.768433</v>
+        <v>653.952271</v>
       </c>
       <c r="N478" s="6">
-        <v>913.38531499999999</v>
+        <v>624.05761700000005</v>
       </c>
       <c r="O478" s="6">
-        <v>828.36340299999995</v>
+        <v>607.47186299999998</v>
       </c>
       <c r="P478" s="6">
-        <v>768.31158400000004</v>
+        <v>586.73736599999995</v>
       </c>
       <c r="Q478" s="6">
-        <v>748.60839799999997</v>
+        <v>576.66180399999996</v>
       </c>
       <c r="R478" s="6">
-        <v>743.97900400000003</v>
+        <v>572.75982699999997</v>
       </c>
       <c r="S478" s="6">
-        <v>739.65332000000001</v>
+        <v>570.38262899999995</v>
       </c>
       <c r="T478" s="6">
-        <v>722.29968299999996</v>
+        <v>560.18658400000004</v>
       </c>
       <c r="U478" s="6">
-        <v>714.00109899999995</v>
+        <v>550.13665800000001</v>
       </c>
       <c r="V478" s="6">
-        <v>708.19818099999998</v>
+        <v>547.08416699999998</v>
       </c>
       <c r="W478" s="6">
-        <v>708.79504399999996</v>
+        <v>544.50073199999997</v>
       </c>
       <c r="X478" s="6">
-        <v>700.90167199999996</v>
+        <v>510.97274800000002</v>
       </c>
       <c r="Y478" s="6">
-        <v>702.26122999999995</v>
+        <v>502.19958500000001</v>
       </c>
       <c r="Z478" s="6">
-        <v>699.40795900000001</v>
+        <v>472.72915599999999</v>
       </c>
       <c r="AA478" s="6">
-        <v>705.098389</v>
+        <v>465.63339200000001</v>
       </c>
       <c r="AB478" s="6">
-        <v>708.36437999999998</v>
+        <v>462.465057</v>
       </c>
       <c r="AC478" s="6">
-        <v>704.53582800000004</v>
+        <v>456.13046300000002</v>
       </c>
       <c r="AD478" s="6">
-        <v>703.08856200000002</v>
+        <v>446.820312</v>
       </c>
       <c r="AE478" s="6">
-        <v>699.95874000000003</v>
+        <v>444.94314600000001</v>
       </c>
       <c r="AF478" s="6">
-        <v>690.17761199999995</v>
+        <v>443.49343900000002</v>
       </c>
       <c r="AG478" s="6">
-        <v>688.58081100000004</v>
+        <v>436.04544099999998</v>
       </c>
       <c r="AH478" s="6">
-        <v>680.23791500000004</v>
+        <v>411.308899</v>
       </c>
       <c r="AI478" s="6">
-        <v>675.87823500000002</v>
+        <v>407.36407500000001</v>
       </c>
       <c r="AJ478" s="6">
-        <v>667.62524399999995</v>
+        <v>405.54458599999998</v>
       </c>
     </row>
     <row r="479" spans="1:36" x14ac:dyDescent="0.25">
@@ -53159,8 +53157,8 @@
       <c r="C479" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D479" s="5" t="s">
-        <v>68</v>
+      <c r="D479" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E479" s="5" t="s">
         <v>1</v>
@@ -53168,91 +53166,91 @@
       <c r="F479" s="6"/>
       <c r="G479" s="6"/>
       <c r="H479" s="6">
-        <v>1507.2661129999999</v>
+        <v>645.55566399999998</v>
       </c>
       <c r="I479" s="6">
-        <v>1396.9580080000001</v>
+        <v>594.91760299999999</v>
       </c>
       <c r="J479" s="6">
-        <v>1387.346802</v>
+        <v>551.510986</v>
       </c>
       <c r="K479" s="6">
-        <v>1317.4365230000001</v>
+        <v>549.72143600000004</v>
       </c>
       <c r="L479" s="6">
-        <v>1269.72522</v>
+        <v>558.61151099999995</v>
       </c>
       <c r="M479" s="6">
-        <v>1235.09375</v>
+        <v>562.90563999999995</v>
       </c>
       <c r="N479" s="6">
-        <v>1214.805298</v>
+        <v>572.84051499999998</v>
       </c>
       <c r="O479" s="6">
-        <v>1202.780518</v>
+        <v>577.51348900000005</v>
       </c>
       <c r="P479" s="6">
-        <v>1177.160889</v>
+        <v>572.75036599999999</v>
       </c>
       <c r="Q479" s="6">
-        <v>1144.6982419999999</v>
+        <v>550.56756600000006</v>
       </c>
       <c r="R479" s="6">
-        <v>1121.2753909999999</v>
+        <v>531.06536900000003</v>
       </c>
       <c r="S479" s="6">
-        <v>1117.068115</v>
+        <v>529.24316399999998</v>
       </c>
       <c r="T479" s="6">
-        <v>1111.8131100000001</v>
+        <v>534.20050000000003</v>
       </c>
       <c r="U479" s="6">
-        <v>1100.4930420000001</v>
+        <v>532.93933100000004</v>
       </c>
       <c r="V479" s="6">
-        <v>1086.4411620000001</v>
+        <v>521.98931900000002</v>
       </c>
       <c r="W479" s="6">
-        <v>1086.2966309999999</v>
+        <v>524.53924600000005</v>
       </c>
       <c r="X479" s="6">
-        <v>1067.955811</v>
+        <v>539.98345900000004</v>
       </c>
       <c r="Y479" s="6">
-        <v>1060.3165280000001</v>
+        <v>541.178406</v>
       </c>
       <c r="Z479" s="6">
-        <v>1039.2182620000001</v>
+        <v>549.69970699999999</v>
       </c>
       <c r="AA479" s="6">
-        <v>1038.868408</v>
+        <v>556.63305700000001</v>
       </c>
       <c r="AB479" s="6">
-        <v>1043.8183590000001</v>
+        <v>564.91729699999996</v>
       </c>
       <c r="AC479" s="6">
-        <v>1045.90625</v>
+        <v>573.535889</v>
       </c>
       <c r="AD479" s="6">
-        <v>1044.2646480000001</v>
+        <v>581.40557899999999</v>
       </c>
       <c r="AE479" s="6">
-        <v>1041.471558</v>
+        <v>580.66705300000001</v>
       </c>
       <c r="AF479" s="6">
-        <v>1042.6320800000001</v>
+        <v>583.23132299999997</v>
       </c>
       <c r="AG479" s="6">
-        <v>1037.446655</v>
+        <v>585.492615</v>
       </c>
       <c r="AH479" s="6">
-        <v>1023.824402</v>
+        <v>596.65338099999997</v>
       </c>
       <c r="AI479" s="6">
-        <v>1025.5627440000001</v>
+        <v>602.32067900000004</v>
       </c>
       <c r="AJ479" s="6">
-        <v>1027.7308350000001</v>
+        <v>606.26855499999999</v>
       </c>
     </row>
     <row r="480" spans="1:36" x14ac:dyDescent="0.25">
@@ -53265,104 +53263,104 @@
       <c r="C480" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D480" s="5" t="s">
-        <v>66</v>
+      <c r="D480" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E480" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F480" s="6">
-        <v>1664.3915927854009</v>
+        <v>634.33337400000005</v>
       </c>
       <c r="G480" s="6">
-        <v>1766.9177041920832</v>
+        <v>615.27032499999996</v>
       </c>
       <c r="H480" s="6">
-        <v>1723.9456237755169</v>
+        <v>645.55572500000005</v>
       </c>
       <c r="I480" s="6">
-        <v>1620.6323278075704</v>
+        <v>594.91760299999999</v>
       </c>
       <c r="J480" s="6">
-        <v>1609.8043964131577</v>
+        <v>556.44512899999995</v>
       </c>
       <c r="K480" s="6">
-        <v>1509.6367234716251</v>
+        <v>529.76300000000003</v>
       </c>
       <c r="L480" s="6">
-        <v>1376.2896160804044</v>
+        <v>506.71398900000003</v>
       </c>
       <c r="M480" s="6">
-        <v>1240.2787570405305</v>
+        <v>471.145081</v>
       </c>
       <c r="N480" s="6">
-        <v>1131.2334184965671</v>
+        <v>451.25140399999998</v>
       </c>
       <c r="O480" s="6">
-        <v>1048.8791820040606</v>
+        <v>433.67559799999998</v>
       </c>
       <c r="P480" s="6">
-        <v>989.91695398224795</v>
+        <v>415.85220299999997</v>
       </c>
       <c r="Q480" s="6">
-        <v>970.09084921481838</v>
+        <v>402.16146900000001</v>
       </c>
       <c r="R480" s="6">
-        <v>965.92497177318933</v>
+        <v>396.17950400000001</v>
       </c>
       <c r="S480" s="6">
-        <v>961.60742624789975</v>
+        <v>380.95370500000001</v>
       </c>
       <c r="T480" s="6">
-        <v>945.6682278934361</v>
+        <v>372.82488999999998</v>
       </c>
       <c r="U480" s="6">
-        <v>936.8797552611386</v>
+        <v>367.89193699999998</v>
       </c>
       <c r="V480" s="6">
-        <v>931.36760070998298</v>
+        <v>369.558044</v>
       </c>
       <c r="W480" s="6">
-        <v>932.04965066617137</v>
+        <v>371.560272</v>
       </c>
       <c r="X480" s="6">
-        <v>924.45210108080187</v>
+        <v>381.83117700000003</v>
       </c>
       <c r="Y480" s="6">
-        <v>926.19423346375766</v>
+        <v>386.15234400000003</v>
       </c>
       <c r="Z480" s="6">
-        <v>923.99128621042996</v>
+        <v>391.56906099999998</v>
       </c>
       <c r="AA480" s="6">
-        <v>929.77523043622034</v>
+        <v>398.52313199999998</v>
       </c>
       <c r="AB480" s="6">
-        <v>933.28797760188229</v>
+        <v>400.87292500000001</v>
       </c>
       <c r="AC480" s="6">
-        <v>929.98734040476143</v>
+        <v>405.30721999999997</v>
       </c>
       <c r="AD480" s="6">
-        <v>928.76859000357558</v>
+        <v>408.41900600000002</v>
       </c>
       <c r="AE480" s="6">
-        <v>925.67802275652514</v>
+        <v>408.42327899999998</v>
       </c>
       <c r="AF480" s="6">
-        <v>913.66449249469463</v>
+        <v>405.168091</v>
       </c>
       <c r="AG480" s="6">
-        <v>913.4344350046</v>
+        <v>406.52313199999998</v>
       </c>
       <c r="AH480" s="6">
-        <v>908.25242878877566</v>
+        <v>414.03848299999999</v>
       </c>
       <c r="AI480" s="6">
-        <v>903.93225922163026</v>
+        <v>414.08026100000001</v>
       </c>
       <c r="AJ480" s="6">
-        <v>895.683817750299</v>
+        <v>418.70697000000001</v>
       </c>
     </row>
     <row r="481" spans="1:36" x14ac:dyDescent="0.25">
@@ -53370,105 +53368,109 @@
         <v>292</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D481" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E481" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F481" s="6"/>
-      <c r="G481" s="6"/>
+      <c r="F481" s="6">
+        <v>16.166993999999999</v>
+      </c>
+      <c r="G481" s="6">
+        <v>17.064997000000002</v>
+      </c>
       <c r="H481" s="6">
-        <v>1724.2345268752636</v>
+        <v>8.3659960000000009</v>
       </c>
       <c r="I481" s="6">
-        <v>1620.6402267584651</v>
+        <v>7.9070429999999998</v>
       </c>
       <c r="J481" s="6">
-        <v>1602.964264293747</v>
+        <v>7.9683719999999996</v>
       </c>
       <c r="K481" s="6">
-        <v>1531.9475373393552</v>
+        <v>7.6988070000000004</v>
       </c>
       <c r="L481" s="6">
-        <v>1485.7001658057732</v>
+        <v>7.0835059999999999</v>
       </c>
       <c r="M481" s="6">
-        <v>1451.8891788643728</v>
+        <v>6.4936369999999997</v>
       </c>
       <c r="N481" s="6">
-        <v>1433.5547887116654</v>
+        <v>5.9018670000000002</v>
       </c>
       <c r="O481" s="6">
-        <v>1423.0709610973909</v>
+        <v>5.5606059999999999</v>
       </c>
       <c r="P481" s="6">
-        <v>1398.8317400722017</v>
+        <v>5.3135690000000002</v>
       </c>
       <c r="Q481" s="6">
-        <v>1365.3941211603312</v>
+        <v>5.0819049999999999</v>
       </c>
       <c r="R481" s="6">
-        <v>1341.9270756053663</v>
+        <v>5.0741839999999998</v>
       </c>
       <c r="S481" s="6">
-        <v>1338.449251943176</v>
+        <v>5.0749389999999996</v>
       </c>
       <c r="T481" s="6">
-        <v>1335.4323763880511</v>
+        <v>5.0369700000000002</v>
       </c>
       <c r="U481" s="6">
-        <v>1324.0880245070166</v>
+        <v>5.0120829999999996</v>
       </c>
       <c r="V481" s="6">
-        <v>1311.6269791850157</v>
+        <v>4.9339320000000004</v>
       </c>
       <c r="W481" s="6">
-        <v>1312.3351049807177</v>
+        <v>4.8284219999999998</v>
       </c>
       <c r="X481" s="6">
-        <v>1293.0650888602165</v>
+        <v>4.5881270000000001</v>
       </c>
       <c r="Y481" s="6">
-        <v>1283.6979121536142</v>
+        <v>4.5397210000000001</v>
       </c>
       <c r="Z481" s="6">
-        <v>1262.1500953537525</v>
+        <v>4.4557700000000002</v>
       </c>
       <c r="AA481" s="6">
-        <v>1262.1905273882742</v>
+        <v>4.2750690000000002</v>
       </c>
       <c r="AB481" s="6">
-        <v>1267.4410408744779</v>
+        <v>4.0840670000000001</v>
       </c>
       <c r="AC481" s="6">
-        <v>1269.8138105666683</v>
+        <v>3.8548360000000002</v>
       </c>
       <c r="AD481" s="6">
-        <v>1267.6087296974615</v>
+        <v>3.6279650000000001</v>
       </c>
       <c r="AE481" s="6">
-        <v>1265.6168838852195</v>
+        <v>3.4010259999999999</v>
       </c>
       <c r="AF481" s="6">
-        <v>1267.7945758242195</v>
+        <v>3.3939840000000001</v>
       </c>
       <c r="AG481" s="6">
-        <v>1263.3573030290245</v>
+        <v>3.3958219999999999</v>
       </c>
       <c r="AH481" s="6">
-        <v>1253.1812345840938</v>
+        <v>3.36151</v>
       </c>
       <c r="AI481" s="6">
-        <v>1255.9048709845854</v>
+        <v>3.3560530000000002</v>
       </c>
       <c r="AJ481" s="6">
-        <v>1257.6111772373174</v>
+        <v>3.329056</v>
       </c>
     </row>
     <row r="482" spans="1:36" x14ac:dyDescent="0.25">
@@ -53692,109 +53694,105 @@
         <v>292</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D484" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E484" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F484" s="4">
-        <v>1629.3745859999999</v>
-      </c>
-      <c r="G484" s="4">
-        <v>1800.808503</v>
-      </c>
-      <c r="H484" s="4">
-        <v>1773.249133</v>
-      </c>
-      <c r="I484" s="4">
-        <v>1760.778898</v>
-      </c>
-      <c r="J484" s="4">
-        <v>1746.0585820000001</v>
-      </c>
-      <c r="K484" s="4">
-        <v>1723.9023999999999</v>
-      </c>
-      <c r="L484" s="4">
-        <v>1708.5114470000001</v>
-      </c>
-      <c r="M484" s="4">
-        <v>1692.8804599999999</v>
-      </c>
-      <c r="N484" s="4">
-        <v>1684.563191</v>
-      </c>
-      <c r="O484" s="4">
-        <v>1666.0220469999999</v>
-      </c>
-      <c r="P484" s="4">
-        <v>1644.875853</v>
-      </c>
-      <c r="Q484" s="4">
-        <v>1626.019393</v>
-      </c>
-      <c r="R484" s="4">
-        <v>1610.263541</v>
-      </c>
-      <c r="S484" s="4">
-        <v>1597.276214</v>
-      </c>
-      <c r="T484" s="4">
-        <v>1585.744604</v>
-      </c>
-      <c r="U484" s="4">
-        <v>1574.929811</v>
-      </c>
-      <c r="V484" s="4">
-        <v>1564.5117010000001</v>
-      </c>
-      <c r="W484" s="4">
-        <v>1557.1861040000001</v>
-      </c>
-      <c r="X484" s="4">
-        <v>1552.092795</v>
-      </c>
-      <c r="Y484" s="4">
-        <v>1547.5301399999998</v>
-      </c>
-      <c r="Z484" s="4">
-        <v>1546.4697229999999</v>
-      </c>
-      <c r="AA484" s="4">
-        <v>1546.6184880000001</v>
-      </c>
-      <c r="AB484" s="4">
-        <v>1548.6096709999999</v>
-      </c>
-      <c r="AC484" s="4">
-        <v>1551.6216049999998</v>
-      </c>
-      <c r="AD484" s="4">
-        <v>1556.1168429999998</v>
-      </c>
-      <c r="AE484" s="4">
-        <v>1561.233694</v>
-      </c>
-      <c r="AF484" s="4">
-        <v>1566.873165</v>
-      </c>
-      <c r="AG484" s="4">
-        <v>1574.600518</v>
-      </c>
-      <c r="AH484" s="4">
-        <v>1581.0606540000001</v>
-      </c>
-      <c r="AI484" s="4">
-        <v>1586.0842070000001</v>
-      </c>
-      <c r="AJ484" s="4">
-        <v>1601.1079639999998</v>
+      <c r="F484" s="6"/>
+      <c r="G484" s="6"/>
+      <c r="H484" s="6">
+        <v>8.3778120000000005</v>
+      </c>
+      <c r="I484" s="6">
+        <v>7.9045480000000001</v>
+      </c>
+      <c r="J484" s="6">
+        <v>7.9577920000000004</v>
+      </c>
+      <c r="K484" s="6">
+        <v>7.7015880000000001</v>
+      </c>
+      <c r="L484" s="6">
+        <v>7.2738950000000004</v>
+      </c>
+      <c r="M484" s="6">
+        <v>6.8962070000000004</v>
+      </c>
+      <c r="N484" s="6">
+        <v>6.5242190000000004</v>
+      </c>
+      <c r="O484" s="6">
+        <v>6.3731580000000001</v>
+      </c>
+      <c r="P484" s="6">
+        <v>6.206467</v>
+      </c>
+      <c r="Q484" s="6">
+        <v>5.9603590000000004</v>
+      </c>
+      <c r="R484" s="6">
+        <v>5.9021340000000002</v>
+      </c>
+      <c r="S484" s="6">
+        <v>5.860951</v>
+      </c>
+      <c r="T484" s="6">
+        <v>5.8214249999999996</v>
+      </c>
+      <c r="U484" s="6">
+        <v>5.7884330000000004</v>
+      </c>
+      <c r="V484" s="6">
+        <v>5.7222559999999998</v>
+      </c>
+      <c r="W484" s="6">
+        <v>5.5989190000000004</v>
+      </c>
+      <c r="X484" s="6">
+        <v>5.3243510000000001</v>
+      </c>
+      <c r="Y484" s="6">
+        <v>5.2324359999999999</v>
+      </c>
+      <c r="Z484" s="6">
+        <v>5.0537409999999996</v>
+      </c>
+      <c r="AA484" s="6">
+        <v>4.8273799999999998</v>
+      </c>
+      <c r="AB484" s="6">
+        <v>4.6225630000000004</v>
+      </c>
+      <c r="AC484" s="6">
+        <v>4.3932859999999998</v>
+      </c>
+      <c r="AD484" s="6">
+        <v>4.1513949999999999</v>
+      </c>
+      <c r="AE484" s="6">
+        <v>3.9351919999999998</v>
+      </c>
+      <c r="AF484" s="6">
+        <v>3.9402430000000002</v>
+      </c>
+      <c r="AG484" s="6">
+        <v>3.9174090000000001</v>
+      </c>
+      <c r="AH484" s="6">
+        <v>3.8352810000000002</v>
+      </c>
+      <c r="AI484" s="6">
+        <v>3.8298649999999999</v>
+      </c>
+      <c r="AJ484" s="6">
+        <v>3.8442669999999999</v>
       </c>
     </row>
     <row r="485" spans="1:36" x14ac:dyDescent="0.25">
@@ -53808,99 +53806,103 @@
         <v>290</v>
       </c>
       <c r="D485" s="5" t="s">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="E485" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F485" s="4"/>
-      <c r="G485" s="4"/>
-      <c r="H485" s="4">
-        <v>1773.502485</v>
-      </c>
-      <c r="I485" s="4">
-        <v>1768.325803</v>
-      </c>
-      <c r="J485" s="4">
-        <v>1756.6066820000001</v>
-      </c>
-      <c r="K485" s="4">
-        <v>1733.378839</v>
-      </c>
-      <c r="L485" s="4">
-        <v>1721.679431</v>
-      </c>
-      <c r="M485" s="4">
-        <v>1709.6973699999999</v>
-      </c>
-      <c r="N485" s="4">
-        <v>1694.9164639999999</v>
-      </c>
-      <c r="O485" s="4">
-        <v>1677.810256</v>
-      </c>
-      <c r="P485" s="4">
-        <v>1656.898475</v>
-      </c>
-      <c r="Q485" s="4">
-        <v>1637.948629</v>
-      </c>
-      <c r="R485" s="4">
-        <v>1622.121658</v>
-      </c>
-      <c r="S485" s="4">
-        <v>1610.2118210000001</v>
-      </c>
-      <c r="T485" s="4">
-        <v>1601.012463</v>
-      </c>
-      <c r="U485" s="4">
-        <v>1593.1986010000001</v>
-      </c>
-      <c r="V485" s="4">
-        <v>1584.674585</v>
-      </c>
-      <c r="W485" s="4">
-        <v>1578.853098</v>
-      </c>
-      <c r="X485" s="4">
-        <v>1574.7742310000001</v>
-      </c>
-      <c r="Y485" s="4">
-        <v>1570.5150509999999</v>
-      </c>
-      <c r="Z485" s="4">
-        <v>1570.2851660000001</v>
-      </c>
-      <c r="AA485" s="4">
-        <v>1572.191898</v>
-      </c>
-      <c r="AB485" s="4">
-        <v>1574.312103</v>
-      </c>
-      <c r="AC485" s="4">
-        <v>1576.0878479999999</v>
-      </c>
-      <c r="AD485" s="4">
-        <v>1578.176708</v>
-      </c>
-      <c r="AE485" s="4">
-        <v>1580.8269339999999</v>
-      </c>
-      <c r="AF485" s="4">
-        <v>1584.9635470000001</v>
-      </c>
-      <c r="AG485" s="4">
-        <v>1590.5867009999999</v>
-      </c>
-      <c r="AH485" s="4">
-        <v>1596.7335849999999</v>
-      </c>
-      <c r="AI485" s="4">
-        <v>1605.1067850000002</v>
-      </c>
-      <c r="AJ485" s="4">
-        <v>1616.164757</v>
+      <c r="F485" s="1">
+        <v>0</v>
+      </c>
+      <c r="G485" s="1">
+        <v>0</v>
+      </c>
+      <c r="H485" s="1">
+        <v>408.69961499999999</v>
+      </c>
+      <c r="I485" s="1">
+        <v>378.51443499999999</v>
+      </c>
+      <c r="J485" s="1">
+        <v>369.45834400000001</v>
+      </c>
+      <c r="K485" s="1">
+        <v>352.26223800000002</v>
+      </c>
+      <c r="L485" s="1">
+        <v>342.135223</v>
+      </c>
+      <c r="M485" s="1">
+        <v>333.90347300000002</v>
+      </c>
+      <c r="N485" s="1">
+        <v>326.98864700000001</v>
+      </c>
+      <c r="O485" s="1">
+        <v>323.54367100000002</v>
+      </c>
+      <c r="P485" s="1">
+        <v>316.04162600000001</v>
+      </c>
+      <c r="Q485" s="1">
+        <v>306.38720699999999</v>
+      </c>
+      <c r="R485" s="1">
+        <v>301.086792</v>
+      </c>
+      <c r="S485" s="1">
+        <v>300.34271200000001</v>
+      </c>
+      <c r="T485" s="1">
+        <v>298.59075899999999</v>
+      </c>
+      <c r="U485" s="1">
+        <v>295.81835899999999</v>
+      </c>
+      <c r="V485" s="1">
+        <v>291.69287100000003</v>
+      </c>
+      <c r="W485" s="1">
+        <v>291.346161</v>
+      </c>
+      <c r="X485" s="1">
+        <v>285.56643700000001</v>
+      </c>
+      <c r="Y485" s="1">
+        <v>282.63244600000002</v>
+      </c>
+      <c r="Z485" s="1">
+        <v>276.46521000000001</v>
+      </c>
+      <c r="AA485" s="1">
+        <v>276.95697000000001</v>
+      </c>
+      <c r="AB485" s="1">
+        <v>277.22152699999998</v>
+      </c>
+      <c r="AC485" s="1">
+        <v>277.70620700000001</v>
+      </c>
+      <c r="AD485" s="1">
+        <v>275.88031000000001</v>
+      </c>
+      <c r="AE485" s="1">
+        <v>274.47512799999998</v>
+      </c>
+      <c r="AF485" s="1">
+        <v>273.90722699999998</v>
+      </c>
+      <c r="AG485" s="1">
+        <v>271.61782799999997</v>
+      </c>
+      <c r="AH485" s="1">
+        <v>268.12524400000001</v>
+      </c>
+      <c r="AI485" s="1">
+        <v>267.395081</v>
+      </c>
+      <c r="AJ485" s="1">
+        <v>267.15277099999997</v>
       </c>
     </row>
     <row r="486" spans="1:36" x14ac:dyDescent="0.25">
@@ -54994,103 +54996,103 @@
         <v>290</v>
       </c>
       <c r="D496" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E496" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F496" s="6">
-        <v>4576.5639650000003</v>
-      </c>
-      <c r="G496" s="6">
-        <v>4872.3979490000002</v>
-      </c>
-      <c r="H496" s="6">
-        <v>4853.4584960000002</v>
-      </c>
-      <c r="I496" s="6">
-        <v>4714.9907229999999</v>
-      </c>
-      <c r="J496" s="6">
-        <v>4663.6040039999998</v>
-      </c>
-      <c r="K496" s="6">
-        <v>4552.8442379999997</v>
-      </c>
-      <c r="L496" s="6">
-        <v>4421.1865230000003</v>
-      </c>
-      <c r="M496" s="6">
-        <v>4279.1831050000001</v>
-      </c>
-      <c r="N496" s="6">
-        <v>4170.6674800000001</v>
-      </c>
-      <c r="O496" s="6">
-        <v>4072.9934079999998</v>
-      </c>
-      <c r="P496" s="6">
-        <v>3996.1271969999998</v>
-      </c>
-      <c r="Q496" s="6">
-        <v>3960.9223630000001</v>
-      </c>
-      <c r="R496" s="6">
-        <v>3947.2253420000002</v>
-      </c>
-      <c r="S496" s="6">
-        <v>3933.398682</v>
-      </c>
-      <c r="T496" s="6">
-        <v>3909.8391109999998</v>
-      </c>
-      <c r="U496" s="6">
-        <v>3893.2392580000001</v>
-      </c>
-      <c r="V496" s="6">
-        <v>3881.1965329999998</v>
-      </c>
-      <c r="W496" s="6">
-        <v>3878.0729980000001</v>
-      </c>
-      <c r="X496" s="6">
-        <v>3866.7434079999998</v>
-      </c>
-      <c r="Y496" s="6">
-        <v>3866.2619629999999</v>
-      </c>
-      <c r="Z496" s="6">
-        <v>3866.6445309999999</v>
-      </c>
-      <c r="AA496" s="6">
-        <v>3875.4497070000002</v>
-      </c>
-      <c r="AB496" s="6">
-        <v>3885.6960450000001</v>
-      </c>
-      <c r="AC496" s="6">
-        <v>3889.9865719999998</v>
-      </c>
-      <c r="AD496" s="6">
-        <v>3897.6657709999999</v>
-      </c>
-      <c r="AE496" s="6">
-        <v>3902.0185550000001</v>
-      </c>
-      <c r="AF496" s="6">
-        <v>3897.7329100000002</v>
-      </c>
-      <c r="AG496" s="6">
-        <v>3908.6533199999999</v>
-      </c>
-      <c r="AH496" s="6">
-        <v>3913.3833009999998</v>
-      </c>
-      <c r="AI496" s="6">
-        <v>3918.1206050000001</v>
-      </c>
-      <c r="AJ496" s="6">
-        <v>3931.1528320000002</v>
+      <c r="F496" s="9">
+        <v>731.14295221459895</v>
+      </c>
+      <c r="G496" s="9">
+        <v>744.90572080791662</v>
+      </c>
+      <c r="H496" s="9">
+        <v>766.85427222448288</v>
+      </c>
+      <c r="I496" s="9">
+        <v>742.77846919242961</v>
+      </c>
+      <c r="J496" s="9">
+        <v>742.84904558684218</v>
+      </c>
+      <c r="K496" s="9">
+        <v>751.26885452837496</v>
+      </c>
+      <c r="L496" s="9">
+        <v>765.47197991959581</v>
+      </c>
+      <c r="M496" s="9">
+        <v>773.68770495946933</v>
+      </c>
+      <c r="N496" s="9">
+        <v>780.65174450343284</v>
+      </c>
+      <c r="O496" s="9">
+        <v>783.46899299593929</v>
+      </c>
+      <c r="P496" s="9">
+        <v>787.10692601775202</v>
+      </c>
+      <c r="Q496" s="9">
+        <v>791.47485478518149</v>
+      </c>
+      <c r="R496" s="9">
+        <v>798.88095122681068</v>
+      </c>
+      <c r="S496" s="9">
+        <v>803.32912775210025</v>
+      </c>
+      <c r="T496" s="9">
+        <v>808.53737010656391</v>
+      </c>
+      <c r="U496" s="9">
+        <v>812.8673457388611</v>
+      </c>
+      <c r="V496" s="9">
+        <v>817.85092029001703</v>
+      </c>
+      <c r="W496" s="9">
+        <v>822.44981533382861</v>
+      </c>
+      <c r="X496" s="9">
+        <v>825.20140191919813</v>
+      </c>
+      <c r="Y496" s="9">
+        <v>828.97791553624211</v>
+      </c>
+      <c r="Z496" s="9">
+        <v>833.84140078957</v>
+      </c>
+      <c r="AA496" s="9">
+        <v>837.86081756377973</v>
+      </c>
+      <c r="AB496" s="9">
+        <v>843.50784439811775</v>
+      </c>
+      <c r="AC496" s="9">
+        <v>848.74268659523864</v>
+      </c>
+      <c r="AD496" s="9">
+        <v>853.54981499642452</v>
+      </c>
+      <c r="AE496" s="9">
+        <v>856.42622524347473</v>
+      </c>
+      <c r="AF496" s="9">
+        <v>859.80070250530537</v>
+      </c>
+      <c r="AG496" s="9">
+        <v>864.24540599539989</v>
+      </c>
+      <c r="AH496" s="9">
+        <v>868.51394421122427</v>
+      </c>
+      <c r="AI496" s="9">
+        <v>873.15555477836983</v>
+      </c>
+      <c r="AJ496" s="9">
+        <v>880.07506224970098</v>
       </c>
     </row>
     <row r="497" spans="1:36" x14ac:dyDescent="0.25">
@@ -55098,105 +55100,109 @@
         <v>292</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D497" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E497" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F497" s="6"/>
-      <c r="G497" s="6"/>
+      <c r="F497" s="6">
+        <v>0</v>
+      </c>
+      <c r="G497" s="6">
+        <v>0</v>
+      </c>
       <c r="H497" s="6">
-        <v>4853.9555659999996</v>
+        <v>0</v>
       </c>
       <c r="I497" s="6">
-        <v>4751.3242190000001</v>
+        <v>0</v>
       </c>
       <c r="J497" s="6">
-        <v>4684.1450199999999</v>
+        <v>0</v>
       </c>
       <c r="K497" s="6">
-        <v>4600.2729490000002</v>
+        <v>0</v>
       </c>
       <c r="L497" s="6">
-        <v>4558.0566410000001</v>
+        <v>0</v>
       </c>
       <c r="M497" s="6">
-        <v>4519.5434569999998</v>
+        <v>0</v>
       </c>
       <c r="N497" s="6">
-        <v>4493.8964839999999</v>
+        <v>0</v>
       </c>
       <c r="O497" s="6">
-        <v>4468.546875</v>
+        <v>0</v>
       </c>
       <c r="P497" s="6">
-        <v>4424.7128910000001</v>
+        <v>0</v>
       </c>
       <c r="Q497" s="6">
-        <v>4374.5537109999996</v>
+        <v>0</v>
       </c>
       <c r="R497" s="6">
-        <v>4341.3872069999998</v>
+        <v>0</v>
       </c>
       <c r="S497" s="6">
-        <v>4329.4892579999996</v>
+        <v>0</v>
       </c>
       <c r="T497" s="6">
-        <v>4321.294922</v>
+        <v>0</v>
       </c>
       <c r="U497" s="6">
-        <v>4306.904297</v>
+        <v>0</v>
       </c>
       <c r="V497" s="6">
-        <v>4288.4169920000004</v>
+        <v>0</v>
       </c>
       <c r="W497" s="6">
-        <v>4286.1567379999997</v>
+        <v>0</v>
       </c>
       <c r="X497" s="6">
-        <v>4264.716797</v>
+        <v>0</v>
       </c>
       <c r="Y497" s="6">
-        <v>4250.8920900000003</v>
+        <v>0</v>
       </c>
       <c r="Z497" s="6">
-        <v>4234.1333009999998</v>
+        <v>0</v>
       </c>
       <c r="AA497" s="6">
-        <v>4242.7905270000001</v>
+        <v>0</v>
       </c>
       <c r="AB497" s="6">
-        <v>4254.9555659999996</v>
+        <v>0</v>
       </c>
       <c r="AC497" s="6">
-        <v>4263.1538090000004</v>
+        <v>0</v>
       </c>
       <c r="AD497" s="6">
-        <v>4265.2661129999997</v>
+        <v>0</v>
       </c>
       <c r="AE497" s="6">
-        <v>4266.6704099999997</v>
+        <v>0</v>
       </c>
       <c r="AF497" s="6">
-        <v>4273.6992190000001</v>
+        <v>0</v>
       </c>
       <c r="AG497" s="6">
-        <v>4276.5415039999998</v>
+        <v>0</v>
       </c>
       <c r="AH497" s="6">
-        <v>4277.5590819999998</v>
+        <v>0</v>
       </c>
       <c r="AI497" s="6">
-        <v>4292.7397460000002</v>
+        <v>0</v>
       </c>
       <c r="AJ497" s="6">
-        <v>4308.5986329999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:36" x14ac:dyDescent="0.25">
@@ -56831,18 +56837,473 @@
         <v>2.9353020000000072</v>
       </c>
     </row>
+    <row r="514" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A514" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B514" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C514" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D514" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E514" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F514" s="9">
+        <v>392.51171900000003</v>
+      </c>
+      <c r="G514" s="9">
+        <v>423.77496300000001</v>
+      </c>
+      <c r="H514" s="9">
+        <v>409.07107500000001</v>
+      </c>
+      <c r="I514" s="9">
+        <v>384.10263099999997</v>
+      </c>
+      <c r="J514" s="9">
+        <v>377.41247600000003</v>
+      </c>
+      <c r="K514" s="9">
+        <v>352.642517</v>
+      </c>
+      <c r="L514" s="9">
+        <v>318.07849099999999</v>
+      </c>
+      <c r="M514" s="9">
+        <v>281.428314</v>
+      </c>
+      <c r="N514" s="9">
+        <v>248.468536</v>
+      </c>
+      <c r="O514" s="9">
+        <v>222.76303100000001</v>
+      </c>
+      <c r="P514" s="9">
+        <v>203.07749899999999</v>
+      </c>
+      <c r="Q514" s="9">
+        <v>196.980682</v>
+      </c>
+      <c r="R514" s="9">
+        <v>194.70811499999999</v>
+      </c>
+      <c r="S514" s="9">
+        <v>194.24972500000001</v>
+      </c>
+      <c r="T514" s="9">
+        <v>189.522186</v>
+      </c>
+      <c r="U514" s="9">
+        <v>187.52157600000001</v>
+      </c>
+      <c r="V514" s="9">
+        <v>186.17460600000001</v>
+      </c>
+      <c r="W514" s="9">
+        <v>184.55595400000001</v>
+      </c>
+      <c r="X514" s="9">
+        <v>181.43579099999999</v>
+      </c>
+      <c r="Y514" s="9">
+        <v>181.865082</v>
+      </c>
+      <c r="Z514" s="9">
+        <v>180.789017</v>
+      </c>
+      <c r="AA514" s="9">
+        <v>182.396423</v>
+      </c>
+      <c r="AB514" s="9">
+        <v>184.04267899999999</v>
+      </c>
+      <c r="AC514" s="9">
+        <v>183.257339</v>
+      </c>
+      <c r="AD514" s="9">
+        <v>183.05543499999999</v>
+      </c>
+      <c r="AE514" s="9">
+        <v>181.77307099999999</v>
+      </c>
+      <c r="AF514" s="9">
+        <v>178.960464</v>
+      </c>
+      <c r="AG514" s="9">
+        <v>178.086029</v>
+      </c>
+      <c r="AH514" s="9">
+        <v>175.696518</v>
+      </c>
+      <c r="AI514" s="9">
+        <v>173.967545</v>
+      </c>
+      <c r="AJ514" s="9">
+        <v>171.22403</v>
+      </c>
+    </row>
+    <row r="515" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A515" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B515" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C515" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D515" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E515" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F515" s="6">
+        <v>215.97618778540104</v>
+      </c>
+      <c r="G515" s="6">
+        <v>215.72605419208315</v>
+      </c>
+      <c r="H515" s="6">
+        <v>216.92609277551693</v>
+      </c>
+      <c r="I515" s="6">
+        <v>223.63806480757034</v>
+      </c>
+      <c r="J515" s="6">
+        <v>214.55915741315775</v>
+      </c>
+      <c r="K515" s="6">
+        <v>214.1463674716251</v>
+      </c>
+      <c r="L515" s="6">
+        <v>214.89996808040416</v>
+      </c>
+      <c r="M515" s="6">
+        <v>215.51032404053061</v>
+      </c>
+      <c r="N515" s="6">
+        <v>217.84810349656721</v>
+      </c>
+      <c r="O515" s="6">
+        <v>220.51577900406068</v>
+      </c>
+      <c r="P515" s="6">
+        <v>221.60536998224794</v>
+      </c>
+      <c r="Q515" s="6">
+        <v>221.48245121481844</v>
+      </c>
+      <c r="R515" s="6">
+        <v>221.94596777318927</v>
+      </c>
+      <c r="S515" s="6">
+        <v>221.95410624789972</v>
+      </c>
+      <c r="T515" s="6">
+        <v>223.36854489343608</v>
+      </c>
+      <c r="U515" s="6">
+        <v>222.8786562611387</v>
+      </c>
+      <c r="V515" s="6">
+        <v>223.16941970998295</v>
+      </c>
+      <c r="W515" s="6">
+        <v>223.25460666617138</v>
+      </c>
+      <c r="X515" s="6">
+        <v>223.55042908080196</v>
+      </c>
+      <c r="Y515" s="6">
+        <v>223.93300346375776</v>
+      </c>
+      <c r="Z515" s="6">
+        <v>224.58332721042996</v>
+      </c>
+      <c r="AA515" s="6">
+        <v>224.67684143622034</v>
+      </c>
+      <c r="AB515" s="6">
+        <v>224.92359760188231</v>
+      </c>
+      <c r="AC515" s="6">
+        <v>225.45151240476142</v>
+      </c>
+      <c r="AD515" s="6">
+        <v>225.68002800357556</v>
+      </c>
+      <c r="AE515" s="6">
+        <v>225.7192827565251</v>
+      </c>
+      <c r="AF515" s="6">
+        <v>223.48688049469465</v>
+      </c>
+      <c r="AG515" s="6">
+        <v>224.85362400459999</v>
+      </c>
+      <c r="AH515" s="6">
+        <v>228.01451378877567</v>
+      </c>
+      <c r="AI515" s="6">
+        <v>228.05402422163024</v>
+      </c>
+      <c r="AJ515" s="6">
+        <v>228.05857375029905</v>
+      </c>
+    </row>
+    <row r="516" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A516" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B516" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C516" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D516" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E516" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F516" s="1">
+        <v>947.11914000000002</v>
+      </c>
+      <c r="G516" s="1">
+        <v>960.63177499999983</v>
+      </c>
+      <c r="H516" s="1">
+        <v>983.78036499999985</v>
+      </c>
+      <c r="I516" s="1">
+        <v>966.41653399999996</v>
+      </c>
+      <c r="J516" s="1">
+        <v>957.40820299999996</v>
+      </c>
+      <c r="K516" s="1">
+        <v>965.41522200000009</v>
+      </c>
+      <c r="L516" s="1">
+        <v>980.37194799999997</v>
+      </c>
+      <c r="M516" s="1">
+        <v>989.19802899999991</v>
+      </c>
+      <c r="N516" s="1">
+        <v>998.49984800000004</v>
+      </c>
+      <c r="O516" s="1">
+        <v>1003.984772</v>
+      </c>
+      <c r="P516" s="1">
+        <v>1008.7122959999999</v>
+      </c>
+      <c r="Q516" s="1">
+        <v>1012.9573059999999</v>
+      </c>
+      <c r="R516" s="1">
+        <v>1020.826919</v>
+      </c>
+      <c r="S516" s="1">
+        <v>1025.283234</v>
+      </c>
+      <c r="T516" s="1">
+        <v>1031.905915</v>
+      </c>
+      <c r="U516" s="1">
+        <v>1035.7460019999999</v>
+      </c>
+      <c r="V516" s="1">
+        <v>1041.02034</v>
+      </c>
+      <c r="W516" s="1">
+        <v>1045.704422</v>
+      </c>
+      <c r="X516" s="1">
+        <v>1048.751831</v>
+      </c>
+      <c r="Y516" s="1">
+        <v>1052.9109189999999</v>
+      </c>
+      <c r="Z516" s="1">
+        <v>1058.424728</v>
+      </c>
+      <c r="AA516" s="1">
+        <v>1062.5376590000001</v>
+      </c>
+      <c r="AB516" s="1">
+        <v>1068.4314420000001</v>
+      </c>
+      <c r="AC516" s="1">
+        <v>1074.194199</v>
+      </c>
+      <c r="AD516" s="1">
+        <v>1079.2298430000001</v>
+      </c>
+      <c r="AE516" s="1">
+        <v>1082.1455079999998</v>
+      </c>
+      <c r="AF516" s="1">
+        <v>1083.287583</v>
+      </c>
+      <c r="AG516" s="1">
+        <v>1089.0990299999999</v>
+      </c>
+      <c r="AH516" s="1">
+        <v>1096.528458</v>
+      </c>
+      <c r="AI516" s="1">
+        <v>1101.2095790000001</v>
+      </c>
+      <c r="AJ516" s="1">
+        <v>1108.133636</v>
+      </c>
+    </row>
+    <row r="517" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A517" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B517" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C517" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D517" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E517" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F517" s="1">
+        <v>392.51171900000003</v>
+      </c>
+      <c r="G517" s="1">
+        <v>423.77496300000001</v>
+      </c>
+      <c r="H517" s="1">
+        <v>409.07107500000001</v>
+      </c>
+      <c r="I517" s="1">
+        <v>384.10263099999997</v>
+      </c>
+      <c r="J517" s="1">
+        <v>377.41247600000003</v>
+      </c>
+      <c r="K517" s="1">
+        <v>352.642517</v>
+      </c>
+      <c r="L517" s="1">
+        <v>318.07849099999999</v>
+      </c>
+      <c r="M517" s="1">
+        <v>281.428314</v>
+      </c>
+      <c r="N517" s="1">
+        <v>248.468536</v>
+      </c>
+      <c r="O517" s="1">
+        <v>222.76303100000001</v>
+      </c>
+      <c r="P517" s="1">
+        <v>203.07749899999999</v>
+      </c>
+      <c r="Q517" s="1">
+        <v>196.980682</v>
+      </c>
+      <c r="R517" s="1">
+        <v>194.70811499999999</v>
+      </c>
+      <c r="S517" s="1">
+        <v>194.24972500000001</v>
+      </c>
+      <c r="T517" s="1">
+        <v>189.522186</v>
+      </c>
+      <c r="U517" s="1">
+        <v>187.52157600000001</v>
+      </c>
+      <c r="V517" s="1">
+        <v>186.17460600000001</v>
+      </c>
+      <c r="W517" s="1">
+        <v>184.55595400000001</v>
+      </c>
+      <c r="X517" s="1">
+        <v>181.43579099999999</v>
+      </c>
+      <c r="Y517" s="1">
+        <v>181.865082</v>
+      </c>
+      <c r="Z517" s="1">
+        <v>180.789017</v>
+      </c>
+      <c r="AA517" s="1">
+        <v>182.396423</v>
+      </c>
+      <c r="AB517" s="1">
+        <v>184.04267899999999</v>
+      </c>
+      <c r="AC517" s="1">
+        <v>183.257339</v>
+      </c>
+      <c r="AD517" s="1">
+        <v>183.05543499999999</v>
+      </c>
+      <c r="AE517" s="1">
+        <v>181.77307099999999</v>
+      </c>
+      <c r="AF517" s="1">
+        <v>178.960464</v>
+      </c>
+      <c r="AG517" s="1">
+        <v>178.086029</v>
+      </c>
+      <c r="AH517" s="1">
+        <v>175.696518</v>
+      </c>
+      <c r="AI517" s="1">
+        <v>173.967545</v>
+      </c>
+      <c r="AJ517" s="1">
+        <v>171.22403</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ1" xr:uid="{2F5B75BC-FA86-469E-9E52-560666E9AC5E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ3297">
-      <sortCondition ref="H1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f856ad2f-e557-432f-a854-14e859f15249" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9a646fad-7db1-45b2-bb48-ff6e0b0aa57a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B6C99F31A4643A49A49854105BD477CB" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="da6371ccc17f69a7d830dacec2ce3f5f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9a646fad-7db1-45b2-bb48-ff6e0b0aa57a" xmlns:ns3="f856ad2f-e557-432f-a854-14e859f15249" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2cf6e6e60df9d67c14fc8255a2e47f12" ns2:_="" ns3:_="">
     <xsd:import namespace="9a646fad-7db1-45b2-bb48-ff6e0b0aa57a"/>
@@ -57079,27 +57540,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DD9A1D7-15DD-4119-892B-3556E77B3410}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f856ad2f-e557-432f-a854-14e859f15249"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9a646fad-7db1-45b2-bb48-ff6e0b0aa57a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f856ad2f-e557-432f-a854-14e859f15249" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9a646fad-7db1-45b2-bb48-ff6e0b0aa57a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3684B28-2848-4B39-8D9D-44169DB678D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{741DC6F4-9BC4-4673-8541-2D06CD8E883A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -57116,29 +57582,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3684B28-2848-4B39-8D9D-44169DB678D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DD9A1D7-15DD-4119-892B-3556E77B3410}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f856ad2f-e557-432f-a854-14e859f15249"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9a646fad-7db1-45b2-bb48-ff6e0b0aa57a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>